--- a/CP questions by Babbar.xlsx
+++ b/CP questions by Babbar.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="487">
   <si>
     <t xml:space="preserve">Questions by Love Babbar:</t>
   </si>
@@ -100,13 +100,10 @@
     <t xml:space="preserve">https://youtu.be/GJOCyFMiFTE</t>
   </si>
   <si>
-    <t xml:space="preserve">find Largest sum contiguous Subarray [V. IMP]</t>
+    <t xml:space="preserve">Reverse the array</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;-&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reverse the array</t>
   </si>
   <si>
     <t xml:space="preserve">https://youtu.be/KKWc1WFG_pQ</t>
@@ -1499,6 +1496,7 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1521,12 +1519,14 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
@@ -1534,6 +1534,7 @@
       <color rgb="FF0563C1"/>
       <name val="Cambria"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
@@ -1541,6 +1542,7 @@
       <color rgb="FF0000FF"/>
       <name val="Cambria"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -1548,12 +1550,14 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -1561,6 +1565,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -1568,18 +1573,21 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="16"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="16"/>
       <color rgb="FF0563C1"/>
       <name val="Cambria"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
@@ -1587,12 +1595,14 @@
       <color rgb="FF1155CC"/>
       <name val="Cambria"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -1601,6 +1611,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
@@ -1608,6 +1619,7 @@
       <color rgb="FF0563C1"/>
       <name val="Cambria"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1806,13 +1818,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D492"/>
+  <dimension ref="A1:D1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="105"/>
@@ -1955,7 +1967,7 @@
         <v>27</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1963,13 +1975,13 @@
         <v>22</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>27</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1977,16 +1989,19 @@
         <v>22</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>32</v>
+      </c>
       <c r="C19" s="6" t="s">
         <v>27</v>
       </c>
@@ -1996,7 +2011,7 @@
         <v>22</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>27</v>
@@ -2007,7 +2022,7 @@
         <v>22</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>27</v>
@@ -2018,7 +2033,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>27</v>
@@ -2029,7 +2044,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>27</v>
@@ -2040,7 +2055,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>27</v>
@@ -2051,7 +2066,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>27</v>
@@ -2062,7 +2077,7 @@
         <v>22</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>27</v>
@@ -2073,7 +2088,7 @@
         <v>22</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>27</v>
@@ -2084,7 +2099,7 @@
         <v>22</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>27</v>
@@ -2095,7 +2110,7 @@
         <v>22</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>27</v>
@@ -2106,7 +2121,7 @@
         <v>22</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>27</v>
@@ -2117,7 +2132,7 @@
         <v>22</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>27</v>
@@ -2128,7 +2143,7 @@
         <v>22</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>27</v>
@@ -2139,7 +2154,7 @@
         <v>22</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>27</v>
@@ -2150,7 +2165,7 @@
         <v>22</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>27</v>
@@ -2161,7 +2176,7 @@
         <v>22</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>27</v>
@@ -2172,7 +2187,7 @@
         <v>22</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>27</v>
@@ -2183,7 +2198,7 @@
         <v>22</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>27</v>
@@ -2194,7 +2209,7 @@
         <v>22</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>27</v>
@@ -2205,7 +2220,7 @@
         <v>22</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>27</v>
@@ -2216,7 +2231,7 @@
         <v>22</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>27</v>
@@ -2227,7 +2242,7 @@
         <v>22</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>27</v>
@@ -2238,7 +2253,7 @@
         <v>22</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>27</v>
@@ -2249,7 +2264,7 @@
         <v>22</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>27</v>
@@ -2260,7 +2275,7 @@
         <v>22</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>27</v>
@@ -2271,7 +2286,7 @@
         <v>22</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>27</v>
@@ -2282,7 +2297,7 @@
         <v>22</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>27</v>
@@ -2293,7 +2308,7 @@
         <v>22</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>27</v>
@@ -2304,7 +2319,7 @@
         <v>22</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>27</v>
@@ -2315,67 +2330,67 @@
         <v>22</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B50" s="16" t="s">
-        <v>62</v>
-      </c>
+      <c r="B50" s="17"/>
       <c r="C50" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B51" s="16" t="s">
+      <c r="A51" s="7"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C51" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B52" s="17"/>
+      <c r="B52" s="16" t="s">
+        <v>64</v>
+      </c>
       <c r="C52" s="6" t="s">
         <v>27</v>
       </c>
+      <c r="D52" s="4" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="7"/>
-      <c r="B53" s="17"/>
+      <c r="A53" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B53" s="16" t="s">
+        <v>66</v>
+      </c>
       <c r="C53" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>27</v>
@@ -2383,10 +2398,10 @@
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>27</v>
@@ -2394,10 +2409,10 @@
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>27</v>
@@ -2405,10 +2420,10 @@
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C58" s="6" t="s">
         <v>27</v>
@@ -2416,10 +2431,10 @@
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C59" s="6" t="s">
         <v>27</v>
@@ -2427,10 +2442,10 @@
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C60" s="6" t="s">
         <v>27</v>
@@ -2438,76 +2453,76 @@
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C61" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B62" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B63" s="16" t="s">
+      <c r="A63" s="7"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="6"/>
+    </row>
+    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C63" s="6" t="s">
-        <v>27</v>
+      <c r="B64" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="7"/>
-      <c r="B65" s="17"/>
-      <c r="C65" s="6"/>
+      <c r="A65" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B65" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B66" s="16" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C66" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C67" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B68" s="16" t="s">
-        <v>80</v>
+        <v>75</v>
+      </c>
+      <c r="B68" s="17" t="s">
+        <v>81</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>27</v>
@@ -2515,10 +2530,10 @@
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B69" s="16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C69" s="6" t="s">
         <v>27</v>
@@ -2526,10 +2541,10 @@
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B70" s="17" t="s">
-        <v>82</v>
+        <v>75</v>
+      </c>
+      <c r="B70" s="16" t="s">
+        <v>83</v>
       </c>
       <c r="C70" s="6" t="s">
         <v>27</v>
@@ -2537,10 +2552,10 @@
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B71" s="16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C71" s="6" t="s">
         <v>27</v>
@@ -2548,10 +2563,10 @@
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B72" s="16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C72" s="6" t="s">
         <v>27</v>
@@ -2559,10 +2574,10 @@
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B73" s="16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>27</v>
@@ -2570,10 +2585,10 @@
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B74" s="16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C74" s="6" t="s">
         <v>27</v>
@@ -2581,10 +2596,10 @@
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B75" s="16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C75" s="6" t="s">
         <v>27</v>
@@ -2592,10 +2607,10 @@
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B76" s="16" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>27</v>
@@ -2603,10 +2618,10 @@
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B77" s="16" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C77" s="6" t="s">
         <v>27</v>
@@ -2614,10 +2629,10 @@
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B78" s="16" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C78" s="6" t="s">
         <v>27</v>
@@ -2625,10 +2640,10 @@
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B79" s="16" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C79" s="6" t="s">
         <v>27</v>
@@ -2636,10 +2651,10 @@
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B80" s="16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C80" s="6" t="s">
         <v>27</v>
@@ -2647,10 +2662,10 @@
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B81" s="16" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C81" s="6" t="s">
         <v>27</v>
@@ -2658,10 +2673,10 @@
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B82" s="16" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C82" s="6" t="s">
         <v>27</v>
@@ -2669,10 +2684,10 @@
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B83" s="16" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C83" s="6" t="s">
         <v>27</v>
@@ -2680,10 +2695,10 @@
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B84" s="16" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C84" s="6" t="s">
         <v>27</v>
@@ -2691,10 +2706,10 @@
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B85" s="16" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C85" s="6" t="s">
         <v>27</v>
@@ -2702,10 +2717,10 @@
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B86" s="16" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C86" s="6" t="s">
         <v>27</v>
@@ -2713,10 +2728,10 @@
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B87" s="16" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C87" s="6" t="s">
         <v>27</v>
@@ -2724,10 +2739,10 @@
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B88" s="16" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C88" s="6" t="s">
         <v>27</v>
@@ -2735,10 +2750,10 @@
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B89" s="16" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C89" s="6" t="s">
         <v>27</v>
@@ -2746,10 +2761,10 @@
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B90" s="16" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C90" s="6" t="s">
         <v>27</v>
@@ -2757,10 +2772,10 @@
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B91" s="16" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C91" s="6" t="s">
         <v>27</v>
@@ -2768,10 +2783,10 @@
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B92" s="16" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C92" s="6" t="s">
         <v>27</v>
@@ -2779,10 +2794,10 @@
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B93" s="16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C93" s="6" t="s">
         <v>27</v>
@@ -2790,10 +2805,10 @@
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B94" s="16" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C94" s="6" t="s">
         <v>27</v>
@@ -2801,10 +2816,10 @@
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B95" s="16" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C95" s="6" t="s">
         <v>27</v>
@@ -2812,10 +2827,10 @@
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B96" s="16" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C96" s="6" t="s">
         <v>27</v>
@@ -2823,10 +2838,10 @@
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B97" s="16" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C97" s="6" t="s">
         <v>27</v>
@@ -2834,10 +2849,10 @@
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B98" s="16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C98" s="6" t="s">
         <v>27</v>
@@ -2845,10 +2860,10 @@
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B99" s="16" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C99" s="6" t="s">
         <v>27</v>
@@ -2856,10 +2871,10 @@
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B100" s="16" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C100" s="6" t="s">
         <v>27</v>
@@ -2867,10 +2882,10 @@
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B101" s="16" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C101" s="6" t="s">
         <v>27</v>
@@ -2878,10 +2893,10 @@
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B102" s="16" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C102" s="6" t="s">
         <v>27</v>
@@ -2889,10 +2904,10 @@
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B103" s="16" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C103" s="6" t="s">
         <v>27</v>
@@ -2900,10 +2915,10 @@
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B104" s="16" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C104" s="6" t="s">
         <v>27</v>
@@ -2911,10 +2926,10 @@
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B105" s="16" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C105" s="6" t="s">
         <v>27</v>
@@ -2922,48 +2937,48 @@
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B106" s="16" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C106" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A107" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B107" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="C107" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A108" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B108" s="16" t="s">
+      <c r="A108" s="7"/>
+      <c r="B108" s="17"/>
+      <c r="C108" s="6"/>
+    </row>
+    <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A109" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="C108" s="6" t="s">
+      <c r="B109" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="C109" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A110" s="7"/>
-      <c r="B110" s="17"/>
-      <c r="C110" s="6"/>
+      <c r="A110" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B110" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B111" s="16" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C111" s="6" t="s">
         <v>27</v>
@@ -2971,10 +2986,10 @@
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B112" s="16" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C112" s="6" t="s">
         <v>27</v>
@@ -2982,10 +2997,10 @@
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B113" s="16" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C113" s="6" t="s">
         <v>27</v>
@@ -2993,10 +3008,10 @@
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B114" s="16" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C114" s="6" t="s">
         <v>27</v>
@@ -3004,10 +3019,10 @@
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B115" s="16" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C115" s="6" t="s">
         <v>27</v>
@@ -3015,10 +3030,10 @@
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B116" s="16" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C116" s="6" t="s">
         <v>27</v>
@@ -3026,10 +3041,10 @@
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B117" s="16" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C117" s="6" t="s">
         <v>27</v>
@@ -3037,10 +3052,10 @@
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B118" s="16" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C118" s="6" t="s">
         <v>27</v>
@@ -3048,10 +3063,10 @@
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B119" s="16" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C119" s="6" t="s">
         <v>27</v>
@@ -3059,10 +3074,10 @@
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B120" s="16" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C120" s="6" t="s">
         <v>27</v>
@@ -3070,10 +3085,10 @@
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B121" s="16" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C121" s="6" t="s">
         <v>27</v>
@@ -3081,10 +3096,10 @@
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B122" s="16" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C122" s="6" t="s">
         <v>27</v>
@@ -3092,10 +3107,10 @@
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B123" s="16" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C123" s="6" t="s">
         <v>27</v>
@@ -3103,10 +3118,10 @@
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B124" s="16" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C124" s="6" t="s">
         <v>27</v>
@@ -3114,10 +3129,10 @@
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B125" s="16" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C125" s="6" t="s">
         <v>27</v>
@@ -3125,10 +3140,10 @@
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B126" s="16" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C126" s="6" t="s">
         <v>27</v>
@@ -3136,10 +3151,10 @@
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B127" s="16" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C127" s="6" t="s">
         <v>27</v>
@@ -3147,10 +3162,10 @@
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B128" s="16" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C128" s="6" t="s">
         <v>27</v>
@@ -3158,10 +3173,10 @@
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B129" s="16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C129" s="6" t="s">
         <v>27</v>
@@ -3169,10 +3184,10 @@
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B130" s="16" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C130" s="6" t="s">
         <v>27</v>
@@ -3180,10 +3195,10 @@
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B131" s="16" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C131" s="6" t="s">
         <v>27</v>
@@ -3191,10 +3206,10 @@
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B132" s="16" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C132" s="6" t="s">
         <v>27</v>
@@ -3202,10 +3217,10 @@
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B133" s="16" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C133" s="6" t="s">
         <v>27</v>
@@ -3213,10 +3228,10 @@
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B134" s="16" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C134" s="6" t="s">
         <v>27</v>
@@ -3224,10 +3239,10 @@
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B135" s="16" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C135" s="6" t="s">
         <v>27</v>
@@ -3235,10 +3250,10 @@
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B136" s="16" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C136" s="6" t="s">
         <v>27</v>
@@ -3246,10 +3261,10 @@
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B137" s="16" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C137" s="6" t="s">
         <v>27</v>
@@ -3257,10 +3272,10 @@
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B138" s="16" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C138" s="6" t="s">
         <v>27</v>
@@ -3268,10 +3283,10 @@
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B139" s="16" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C139" s="6" t="s">
         <v>27</v>
@@ -3279,10 +3294,10 @@
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B140" s="16" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C140" s="6" t="s">
         <v>27</v>
@@ -3290,10 +3305,10 @@
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B141" s="16" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C141" s="6" t="s">
         <v>27</v>
@@ -3301,10 +3316,10 @@
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B142" s="16" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C142" s="6" t="s">
         <v>27</v>
@@ -3312,10 +3327,10 @@
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B143" s="16" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C143" s="6" t="s">
         <v>27</v>
@@ -3323,47 +3338,47 @@
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B144" s="16" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C144" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A145" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="B145" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="C145" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A146" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="B146" s="16" t="s">
+      <c r="B146" s="17"/>
+      <c r="C146" s="6"/>
+    </row>
+    <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A147" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="C146" s="6" t="s">
+      <c r="B147" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="C147" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B148" s="17"/>
-      <c r="C148" s="6"/>
+      <c r="A148" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B148" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="C148" s="6" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B149" s="16" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C149" s="6" t="s">
         <v>27</v>
@@ -3371,10 +3386,10 @@
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B150" s="16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C150" s="6" t="s">
         <v>27</v>
@@ -3382,10 +3397,10 @@
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B151" s="16" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C151" s="6" t="s">
         <v>27</v>
@@ -3393,10 +3408,10 @@
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B152" s="16" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C152" s="6" t="s">
         <v>27</v>
@@ -3404,10 +3419,10 @@
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B153" s="16" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C153" s="6" t="s">
         <v>27</v>
@@ -3415,10 +3430,10 @@
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B154" s="16" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C154" s="6" t="s">
         <v>27</v>
@@ -3426,10 +3441,10 @@
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B155" s="16" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C155" s="6" t="s">
         <v>27</v>
@@ -3437,10 +3452,10 @@
     </row>
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B156" s="16" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C156" s="6" t="s">
         <v>27</v>
@@ -3448,10 +3463,10 @@
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B157" s="16" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C157" s="6" t="s">
         <v>27</v>
@@ -3459,10 +3474,10 @@
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B158" s="16" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C158" s="6" t="s">
         <v>27</v>
@@ -3470,10 +3485,10 @@
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B159" s="16" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C159" s="6" t="s">
         <v>27</v>
@@ -3481,10 +3496,10 @@
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B160" s="16" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C160" s="6" t="s">
         <v>27</v>
@@ -3492,10 +3507,10 @@
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B161" s="16" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C161" s="6" t="s">
         <v>27</v>
@@ -3503,10 +3518,10 @@
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B162" s="16" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C162" s="6" t="s">
         <v>27</v>
@@ -3514,10 +3529,10 @@
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B163" s="16" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C163" s="6" t="s">
         <v>27</v>
@@ -3525,10 +3540,10 @@
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B164" s="16" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C164" s="6" t="s">
         <v>27</v>
@@ -3536,10 +3551,10 @@
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B165" s="16" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C165" s="6" t="s">
         <v>27</v>
@@ -3547,10 +3562,10 @@
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B166" s="16" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C166" s="6" t="s">
         <v>27</v>
@@ -3558,10 +3573,10 @@
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B167" s="16" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C167" s="6" t="s">
         <v>27</v>
@@ -3569,10 +3584,10 @@
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B168" s="16" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C168" s="6" t="s">
         <v>27</v>
@@ -3580,10 +3595,10 @@
     </row>
     <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B169" s="16" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C169" s="6" t="s">
         <v>27</v>
@@ -3591,10 +3606,10 @@
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A170" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B170" s="16" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C170" s="6" t="s">
         <v>27</v>
@@ -3602,10 +3617,10 @@
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A171" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B171" s="16" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C171" s="6" t="s">
         <v>27</v>
@@ -3613,10 +3628,10 @@
     </row>
     <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A172" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="B172" s="16" t="s">
-        <v>182</v>
+        <v>157</v>
+      </c>
+      <c r="B172" s="17" t="s">
+        <v>183</v>
       </c>
       <c r="C172" s="6" t="s">
         <v>27</v>
@@ -3624,10 +3639,10 @@
     </row>
     <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="B173" s="16" t="s">
-        <v>183</v>
+        <v>157</v>
+      </c>
+      <c r="B173" s="17" t="s">
+        <v>184</v>
       </c>
       <c r="C173" s="6" t="s">
         <v>27</v>
@@ -3635,10 +3650,10 @@
     </row>
     <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A174" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="B174" s="17" t="s">
-        <v>184</v>
+        <v>157</v>
+      </c>
+      <c r="B174" s="16" t="s">
+        <v>185</v>
       </c>
       <c r="C174" s="6" t="s">
         <v>27</v>
@@ -3646,10 +3661,10 @@
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A175" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="B175" s="17" t="s">
-        <v>185</v>
+        <v>157</v>
+      </c>
+      <c r="B175" s="16" t="s">
+        <v>186</v>
       </c>
       <c r="C175" s="6" t="s">
         <v>27</v>
@@ -3657,10 +3672,10 @@
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A176" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B176" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C176" s="6" t="s">
         <v>27</v>
@@ -3668,10 +3683,10 @@
     </row>
     <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A177" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B177" s="16" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C177" s="6" t="s">
         <v>27</v>
@@ -3679,10 +3694,10 @@
     </row>
     <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A178" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B178" s="16" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C178" s="6" t="s">
         <v>27</v>
@@ -3690,10 +3705,10 @@
     </row>
     <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A179" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B179" s="16" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C179" s="6" t="s">
         <v>27</v>
@@ -3701,10 +3716,10 @@
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A180" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B180" s="16" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C180" s="6" t="s">
         <v>27</v>
@@ -3712,10 +3727,10 @@
     </row>
     <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A181" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B181" s="16" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C181" s="6" t="s">
         <v>27</v>
@@ -3723,47 +3738,47 @@
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A182" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B182" s="16" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C182" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A183" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="B183" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="C183" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
     <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A184" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="B184" s="16" t="s">
+      <c r="B184" s="17"/>
+      <c r="C184" s="6"/>
+    </row>
+    <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A185" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="C184" s="6" t="s">
+      <c r="B185" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="C185" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B186" s="17"/>
-      <c r="C186" s="6"/>
+      <c r="A186" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="B186" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="C186" s="6" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A187" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B187" s="16" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C187" s="6" t="s">
         <v>27</v>
@@ -3771,10 +3786,10 @@
     </row>
     <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A188" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B188" s="16" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C188" s="6" t="s">
         <v>27</v>
@@ -3782,10 +3797,10 @@
     </row>
     <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A189" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B189" s="16" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C189" s="6" t="s">
         <v>27</v>
@@ -3793,10 +3808,10 @@
     </row>
     <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A190" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B190" s="16" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C190" s="6" t="s">
         <v>27</v>
@@ -3804,10 +3819,10 @@
     </row>
     <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A191" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B191" s="16" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C191" s="6" t="s">
         <v>27</v>
@@ -3815,10 +3830,10 @@
     </row>
     <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A192" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B192" s="16" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C192" s="6" t="s">
         <v>27</v>
@@ -3826,10 +3841,10 @@
     </row>
     <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A193" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B193" s="16" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C193" s="6" t="s">
         <v>27</v>
@@ -3837,10 +3852,10 @@
     </row>
     <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A194" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B194" s="16" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C194" s="6" t="s">
         <v>27</v>
@@ -3848,10 +3863,10 @@
     </row>
     <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A195" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B195" s="16" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C195" s="6" t="s">
         <v>27</v>
@@ -3859,10 +3874,10 @@
     </row>
     <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A196" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B196" s="16" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C196" s="6" t="s">
         <v>27</v>
@@ -3870,10 +3885,10 @@
     </row>
     <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A197" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B197" s="16" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C197" s="6" t="s">
         <v>27</v>
@@ -3881,10 +3896,10 @@
     </row>
     <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A198" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B198" s="16" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C198" s="6" t="s">
         <v>27</v>
@@ -3892,10 +3907,10 @@
     </row>
     <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A199" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B199" s="16" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C199" s="6" t="s">
         <v>27</v>
@@ -3903,10 +3918,10 @@
     </row>
     <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A200" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B200" s="16" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C200" s="6" t="s">
         <v>27</v>
@@ -3914,10 +3929,10 @@
     </row>
     <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A201" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B201" s="16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C201" s="6" t="s">
         <v>27</v>
@@ -3925,10 +3940,10 @@
     </row>
     <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A202" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B202" s="16" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C202" s="6" t="s">
         <v>27</v>
@@ -3936,10 +3951,10 @@
     </row>
     <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A203" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B203" s="16" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C203" s="6" t="s">
         <v>27</v>
@@ -3947,10 +3962,10 @@
     </row>
     <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A204" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B204" s="16" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C204" s="6" t="s">
         <v>27</v>
@@ -3958,10 +3973,10 @@
     </row>
     <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A205" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B205" s="16" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C205" s="6" t="s">
         <v>27</v>
@@ -3969,10 +3984,10 @@
     </row>
     <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A206" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B206" s="16" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C206" s="6" t="s">
         <v>27</v>
@@ -3980,10 +3995,10 @@
     </row>
     <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A207" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B207" s="16" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C207" s="6" t="s">
         <v>27</v>
@@ -3991,10 +4006,10 @@
     </row>
     <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A208" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B208" s="16" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C208" s="6" t="s">
         <v>27</v>
@@ -4002,10 +4017,10 @@
     </row>
     <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A209" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B209" s="16" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C209" s="6" t="s">
         <v>27</v>
@@ -4013,10 +4028,10 @@
     </row>
     <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A210" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B210" s="16" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C210" s="6" t="s">
         <v>27</v>
@@ -4024,10 +4039,10 @@
     </row>
     <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A211" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B211" s="16" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C211" s="6" t="s">
         <v>27</v>
@@ -4035,10 +4050,10 @@
     </row>
     <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A212" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B212" s="16" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C212" s="6" t="s">
         <v>27</v>
@@ -4046,10 +4061,10 @@
     </row>
     <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A213" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B213" s="16" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C213" s="6" t="s">
         <v>27</v>
@@ -4057,10 +4072,10 @@
     </row>
     <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A214" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B214" s="16" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C214" s="6" t="s">
         <v>27</v>
@@ -4068,10 +4083,10 @@
     </row>
     <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A215" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B215" s="16" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C215" s="6" t="s">
         <v>27</v>
@@ -4079,10 +4094,10 @@
     </row>
     <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A216" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B216" s="16" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C216" s="6" t="s">
         <v>27</v>
@@ -4090,10 +4105,10 @@
     </row>
     <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A217" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B217" s="16" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C217" s="6" t="s">
         <v>27</v>
@@ -4101,10 +4116,10 @@
     </row>
     <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A218" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B218" s="16" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C218" s="6" t="s">
         <v>27</v>
@@ -4112,53 +4127,53 @@
     </row>
     <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A219" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B219" s="16" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C219" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A220" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="B220" s="16" t="s">
-        <v>229</v>
-      </c>
-      <c r="C220" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="A220" s="7"/>
+      <c r="B220" s="17"/>
+      <c r="C220" s="6"/>
     </row>
     <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A221" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="B221" s="16" t="s">
+      <c r="A221" s="7"/>
+      <c r="B221" s="17"/>
+      <c r="C221" s="6"/>
+    </row>
+    <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A222" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="C221" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A222" s="7"/>
-      <c r="B222" s="17"/>
-      <c r="C222" s="6"/>
+      <c r="B222" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="C222" s="6" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A223" s="7"/>
-      <c r="B223" s="17"/>
-      <c r="C223" s="6"/>
+      <c r="A223" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B223" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="C223" s="6" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A224" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B224" s="16" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C224" s="6" t="s">
         <v>27</v>
@@ -4166,10 +4181,10 @@
     </row>
     <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A225" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B225" s="16" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C225" s="6" t="s">
         <v>27</v>
@@ -4177,10 +4192,10 @@
     </row>
     <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A226" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B226" s="16" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C226" s="6" t="s">
         <v>27</v>
@@ -4188,10 +4203,10 @@
     </row>
     <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A227" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B227" s="16" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C227" s="6" t="s">
         <v>27</v>
@@ -4199,10 +4214,10 @@
     </row>
     <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A228" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="B228" s="16" t="s">
-        <v>236</v>
+        <v>230</v>
+      </c>
+      <c r="B228" s="18" t="s">
+        <v>237</v>
       </c>
       <c r="C228" s="6" t="s">
         <v>27</v>
@@ -4210,10 +4225,10 @@
     </row>
     <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A229" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B229" s="16" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C229" s="6" t="s">
         <v>27</v>
@@ -4221,10 +4236,10 @@
     </row>
     <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A230" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="B230" s="18" t="s">
-        <v>238</v>
+        <v>230</v>
+      </c>
+      <c r="B230" s="16" t="s">
+        <v>239</v>
       </c>
       <c r="C230" s="6" t="s">
         <v>27</v>
@@ -4232,10 +4247,10 @@
     </row>
     <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A231" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B231" s="16" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C231" s="6" t="s">
         <v>27</v>
@@ -4243,10 +4258,10 @@
     </row>
     <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A232" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B232" s="16" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C232" s="6" t="s">
         <v>27</v>
@@ -4254,10 +4269,10 @@
     </row>
     <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A233" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B233" s="16" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C233" s="6" t="s">
         <v>27</v>
@@ -4265,10 +4280,10 @@
     </row>
     <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A234" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B234" s="16" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C234" s="6" t="s">
         <v>27</v>
@@ -4276,10 +4291,10 @@
     </row>
     <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A235" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B235" s="16" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C235" s="6" t="s">
         <v>27</v>
@@ -4287,10 +4302,10 @@
     </row>
     <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A236" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B236" s="16" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C236" s="6" t="s">
         <v>27</v>
@@ -4298,10 +4313,10 @@
     </row>
     <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A237" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B237" s="16" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C237" s="6" t="s">
         <v>27</v>
@@ -4309,10 +4324,10 @@
     </row>
     <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A238" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B238" s="16" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C238" s="6" t="s">
         <v>27</v>
@@ -4320,10 +4335,10 @@
     </row>
     <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A239" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B239" s="16" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C239" s="6" t="s">
         <v>27</v>
@@ -4331,10 +4346,10 @@
     </row>
     <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A240" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B240" s="16" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C240" s="6" t="s">
         <v>27</v>
@@ -4342,10 +4357,10 @@
     </row>
     <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A241" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B241" s="16" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C241" s="6" t="s">
         <v>27</v>
@@ -4353,10 +4368,10 @@
     </row>
     <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A242" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B242" s="16" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C242" s="6" t="s">
         <v>27</v>
@@ -4364,51 +4379,51 @@
     </row>
     <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A243" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B243" s="16" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C243" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A244" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="B244" s="16" t="s">
-        <v>252</v>
-      </c>
-      <c r="C244" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="B244" s="17"/>
+      <c r="C244" s="6"/>
     </row>
     <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A245" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="B245" s="16" t="s">
+      <c r="B245" s="17"/>
+      <c r="C245" s="6"/>
+    </row>
+    <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A246" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="C245" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B246" s="17"/>
-      <c r="C246" s="6"/>
+      <c r="B246" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="C246" s="6" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B247" s="17"/>
-      <c r="C247" s="6"/>
+      <c r="A247" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="B247" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="C247" s="6" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A248" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B248" s="16" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C248" s="6" t="s">
         <v>27</v>
@@ -4416,10 +4431,10 @@
     </row>
     <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A249" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B249" s="16" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C249" s="6" t="s">
         <v>27</v>
@@ -4427,10 +4442,10 @@
     </row>
     <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A250" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B250" s="16" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C250" s="6" t="s">
         <v>27</v>
@@ -4438,10 +4453,10 @@
     </row>
     <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A251" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B251" s="16" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C251" s="6" t="s">
         <v>27</v>
@@ -4449,10 +4464,10 @@
     </row>
     <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A252" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B252" s="16" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C252" s="6" t="s">
         <v>27</v>
@@ -4460,10 +4475,10 @@
     </row>
     <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A253" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B253" s="16" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C253" s="6" t="s">
         <v>27</v>
@@ -4471,10 +4486,10 @@
     </row>
     <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A254" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B254" s="16" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C254" s="6" t="s">
         <v>27</v>
@@ -4482,10 +4497,10 @@
     </row>
     <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A255" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B255" s="16" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C255" s="6" t="s">
         <v>27</v>
@@ -4493,10 +4508,10 @@
     </row>
     <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A256" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B256" s="16" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C256" s="6" t="s">
         <v>27</v>
@@ -4504,10 +4519,10 @@
     </row>
     <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A257" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B257" s="16" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C257" s="6" t="s">
         <v>27</v>
@@ -4515,10 +4530,10 @@
     </row>
     <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A258" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B258" s="16" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C258" s="6" t="s">
         <v>27</v>
@@ -4526,10 +4541,10 @@
     </row>
     <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A259" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B259" s="16" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C259" s="6" t="s">
         <v>27</v>
@@ -4537,10 +4552,10 @@
     </row>
     <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A260" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B260" s="16" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C260" s="6" t="s">
         <v>27</v>
@@ -4548,10 +4563,10 @@
     </row>
     <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A261" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B261" s="16" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C261" s="6" t="s">
         <v>27</v>
@@ -4559,10 +4574,10 @@
     </row>
     <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A262" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B262" s="16" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C262" s="6" t="s">
         <v>27</v>
@@ -4570,10 +4585,10 @@
     </row>
     <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A263" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B263" s="16" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C263" s="6" t="s">
         <v>27</v>
@@ -4581,10 +4596,10 @@
     </row>
     <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A264" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B264" s="16" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C264" s="6" t="s">
         <v>27</v>
@@ -4592,10 +4607,10 @@
     </row>
     <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A265" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B265" s="16" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C265" s="6" t="s">
         <v>27</v>
@@ -4603,10 +4618,10 @@
     </row>
     <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A266" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B266" s="16" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C266" s="6" t="s">
         <v>27</v>
@@ -4614,10 +4629,10 @@
     </row>
     <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A267" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B267" s="16" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C267" s="6" t="s">
         <v>27</v>
@@ -4625,10 +4640,10 @@
     </row>
     <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A268" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B268" s="16" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C268" s="6" t="s">
         <v>27</v>
@@ -4636,10 +4651,10 @@
     </row>
     <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A269" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B269" s="16" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C269" s="6" t="s">
         <v>27</v>
@@ -4647,10 +4662,10 @@
     </row>
     <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A270" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B270" s="16" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C270" s="6" t="s">
         <v>27</v>
@@ -4658,10 +4673,10 @@
     </row>
     <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A271" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B271" s="16" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C271" s="6" t="s">
         <v>27</v>
@@ -4669,10 +4684,10 @@
     </row>
     <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A272" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B272" s="16" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C272" s="6" t="s">
         <v>27</v>
@@ -4680,10 +4695,10 @@
     </row>
     <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A273" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B273" s="16" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C273" s="6" t="s">
         <v>27</v>
@@ -4691,10 +4706,10 @@
     </row>
     <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A274" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B274" s="16" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C274" s="6" t="s">
         <v>27</v>
@@ -4702,10 +4717,10 @@
     </row>
     <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A275" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B275" s="16" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C275" s="6" t="s">
         <v>27</v>
@@ -4713,10 +4728,10 @@
     </row>
     <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A276" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B276" s="16" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C276" s="6" t="s">
         <v>27</v>
@@ -4724,10 +4739,10 @@
     </row>
     <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A277" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B277" s="16" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C277" s="6" t="s">
         <v>27</v>
@@ -4735,10 +4750,10 @@
     </row>
     <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A278" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B278" s="16" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C278" s="6" t="s">
         <v>27</v>
@@ -4746,10 +4761,10 @@
     </row>
     <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A279" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B279" s="16" t="s">
-        <v>286</v>
+        <v>111</v>
       </c>
       <c r="C279" s="6" t="s">
         <v>27</v>
@@ -4757,7 +4772,7 @@
     </row>
     <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A280" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B280" s="16" t="s">
         <v>287</v>
@@ -4767,41 +4782,41 @@
       </c>
     </row>
     <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A281" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="B281" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="C281" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="B281" s="17"/>
+      <c r="C281" s="6"/>
     </row>
     <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A282" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="B282" s="16" t="s">
+      <c r="B282" s="17"/>
+      <c r="C282" s="6"/>
+    </row>
+    <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A283" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="C282" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B283" s="17"/>
-      <c r="C283" s="6"/>
+      <c r="B283" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C283" s="6" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B284" s="17"/>
-      <c r="C284" s="6"/>
+      <c r="A284" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="B284" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="C284" s="6" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A285" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B285" s="16" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C285" s="6" t="s">
         <v>27</v>
@@ -4809,10 +4824,10 @@
     </row>
     <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A286" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B286" s="16" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C286" s="6" t="s">
         <v>27</v>
@@ -4820,10 +4835,10 @@
     </row>
     <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A287" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B287" s="16" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C287" s="6" t="s">
         <v>27</v>
@@ -4831,10 +4846,10 @@
     </row>
     <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A288" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B288" s="16" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C288" s="6" t="s">
         <v>27</v>
@@ -4842,10 +4857,10 @@
     </row>
     <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A289" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B289" s="16" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C289" s="6" t="s">
         <v>27</v>
@@ -4853,10 +4868,10 @@
     </row>
     <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A290" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B290" s="16" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C290" s="6" t="s">
         <v>27</v>
@@ -4864,10 +4879,10 @@
     </row>
     <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A291" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B291" s="16" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C291" s="6" t="s">
         <v>27</v>
@@ -4875,10 +4890,10 @@
     </row>
     <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A292" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B292" s="16" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C292" s="6" t="s">
         <v>27</v>
@@ -4886,10 +4901,10 @@
     </row>
     <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A293" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B293" s="16" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C293" s="6" t="s">
         <v>27</v>
@@ -4897,10 +4912,10 @@
     </row>
     <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A294" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B294" s="16" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C294" s="6" t="s">
         <v>27</v>
@@ -4908,10 +4923,10 @@
     </row>
     <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A295" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B295" s="16" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C295" s="6" t="s">
         <v>27</v>
@@ -4919,10 +4934,10 @@
     </row>
     <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A296" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B296" s="16" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C296" s="6" t="s">
         <v>27</v>
@@ -4930,10 +4945,10 @@
     </row>
     <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A297" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B297" s="16" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C297" s="6" t="s">
         <v>27</v>
@@ -4941,10 +4956,10 @@
     </row>
     <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A298" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B298" s="16" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C298" s="6" t="s">
         <v>27</v>
@@ -4952,10 +4967,10 @@
     </row>
     <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A299" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B299" s="16" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C299" s="6" t="s">
         <v>27</v>
@@ -4963,10 +4978,10 @@
     </row>
     <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A300" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B300" s="16" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C300" s="6" t="s">
         <v>27</v>
@@ -4974,51 +4989,51 @@
     </row>
     <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A301" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B301" s="16" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C301" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A302" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="B302" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="C302" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="B302" s="17"/>
+      <c r="C302" s="6"/>
     </row>
     <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A303" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="B303" s="16" t="s">
+      <c r="B303" s="17"/>
+      <c r="C303" s="6"/>
+    </row>
+    <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A304" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="C303" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B304" s="17"/>
-      <c r="C304" s="6"/>
+      <c r="B304" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="C304" s="6" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B305" s="17"/>
-      <c r="C305" s="6"/>
+      <c r="A305" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="B305" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="C305" s="6" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A306" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B306" s="16" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C306" s="6" t="s">
         <v>27</v>
@@ -5026,10 +5041,10 @@
     </row>
     <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A307" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B307" s="16" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C307" s="6" t="s">
         <v>27</v>
@@ -5037,10 +5052,10 @@
     </row>
     <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A308" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B308" s="16" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C308" s="6" t="s">
         <v>27</v>
@@ -5048,10 +5063,10 @@
     </row>
     <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A309" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B309" s="16" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C309" s="6" t="s">
         <v>27</v>
@@ -5059,10 +5074,10 @@
     </row>
     <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A310" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B310" s="16" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C310" s="6" t="s">
         <v>27</v>
@@ -5070,10 +5085,10 @@
     </row>
     <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A311" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B311" s="16" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C311" s="6" t="s">
         <v>27</v>
@@ -5081,10 +5096,10 @@
     </row>
     <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A312" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B312" s="16" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C312" s="6" t="s">
         <v>27</v>
@@ -5092,10 +5107,10 @@
     </row>
     <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A313" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B313" s="16" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C313" s="6" t="s">
         <v>27</v>
@@ -5103,10 +5118,10 @@
     </row>
     <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A314" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B314" s="16" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C314" s="6" t="s">
         <v>27</v>
@@ -5114,10 +5129,10 @@
     </row>
     <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A315" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B315" s="16" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C315" s="6" t="s">
         <v>27</v>
@@ -5125,10 +5140,10 @@
     </row>
     <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A316" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B316" s="16" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C316" s="6" t="s">
         <v>27</v>
@@ -5136,10 +5151,10 @@
     </row>
     <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A317" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="B317" s="16" t="s">
-        <v>321</v>
+        <v>308</v>
+      </c>
+      <c r="B317" s="18" t="s">
+        <v>322</v>
       </c>
       <c r="C317" s="6" t="s">
         <v>27</v>
@@ -5147,10 +5162,10 @@
     </row>
     <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A318" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B318" s="16" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C318" s="6" t="s">
         <v>27</v>
@@ -5158,10 +5173,10 @@
     </row>
     <row r="319" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A319" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="B319" s="18" t="s">
-        <v>323</v>
+        <v>308</v>
+      </c>
+      <c r="B319" s="16" t="s">
+        <v>324</v>
       </c>
       <c r="C319" s="6" t="s">
         <v>27</v>
@@ -5169,10 +5184,10 @@
     </row>
     <row r="320" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A320" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B320" s="16" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C320" s="6" t="s">
         <v>27</v>
@@ -5180,10 +5195,10 @@
     </row>
     <row r="321" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A321" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B321" s="16" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C321" s="6" t="s">
         <v>27</v>
@@ -5191,10 +5206,10 @@
     </row>
     <row r="322" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A322" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B322" s="16" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C322" s="6" t="s">
         <v>27</v>
@@ -5202,10 +5217,10 @@
     </row>
     <row r="323" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A323" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B323" s="16" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C323" s="6" t="s">
         <v>27</v>
@@ -5213,10 +5228,10 @@
     </row>
     <row r="324" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A324" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B324" s="16" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C324" s="6" t="s">
         <v>27</v>
@@ -5224,10 +5239,10 @@
     </row>
     <row r="325" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A325" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B325" s="16" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C325" s="6" t="s">
         <v>27</v>
@@ -5235,10 +5250,10 @@
     </row>
     <row r="326" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A326" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B326" s="16" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C326" s="6" t="s">
         <v>27</v>
@@ -5246,10 +5261,10 @@
     </row>
     <row r="327" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A327" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B327" s="16" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C327" s="6" t="s">
         <v>27</v>
@@ -5257,10 +5272,10 @@
     </row>
     <row r="328" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A328" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B328" s="16" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C328" s="6" t="s">
         <v>27</v>
@@ -5268,10 +5283,10 @@
     </row>
     <row r="329" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A329" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B329" s="16" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C329" s="6" t="s">
         <v>27</v>
@@ -5279,10 +5294,10 @@
     </row>
     <row r="330" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A330" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B330" s="16" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C330" s="6" t="s">
         <v>27</v>
@@ -5290,10 +5305,10 @@
     </row>
     <row r="331" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A331" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B331" s="16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C331" s="6" t="s">
         <v>27</v>
@@ -5301,10 +5316,10 @@
     </row>
     <row r="332" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A332" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B332" s="16" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C332" s="6" t="s">
         <v>27</v>
@@ -5312,10 +5327,10 @@
     </row>
     <row r="333" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A333" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B333" s="16" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C333" s="6" t="s">
         <v>27</v>
@@ -5323,10 +5338,10 @@
     </row>
     <row r="334" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A334" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B334" s="16" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C334" s="6" t="s">
         <v>27</v>
@@ -5334,10 +5349,10 @@
     </row>
     <row r="335" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A335" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B335" s="16" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C335" s="6" t="s">
         <v>27</v>
@@ -5345,10 +5360,10 @@
     </row>
     <row r="336" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A336" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B336" s="16" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C336" s="6" t="s">
         <v>27</v>
@@ -5356,10 +5371,10 @@
     </row>
     <row r="337" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A337" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B337" s="16" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C337" s="6" t="s">
         <v>27</v>
@@ -5367,10 +5382,10 @@
     </row>
     <row r="338" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A338" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B338" s="16" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C338" s="6" t="s">
         <v>27</v>
@@ -5378,10 +5393,10 @@
     </row>
     <row r="339" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A339" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B339" s="16" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C339" s="6" t="s">
         <v>27</v>
@@ -5389,10 +5404,10 @@
     </row>
     <row r="340" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A340" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B340" s="16" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C340" s="6" t="s">
         <v>27</v>
@@ -5400,51 +5415,51 @@
     </row>
     <row r="341" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A341" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B341" s="16" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C341" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A342" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="B342" s="16" t="s">
-        <v>346</v>
-      </c>
-      <c r="C342" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="B342" s="17"/>
+      <c r="C342" s="6"/>
     </row>
     <row r="343" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A343" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="B343" s="16" t="s">
+      <c r="B343" s="17"/>
+      <c r="C343" s="6"/>
+    </row>
+    <row r="344" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A344" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="C343" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="344" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B344" s="17"/>
-      <c r="C344" s="6"/>
+      <c r="B344" s="16" t="s">
+        <v>348</v>
+      </c>
+      <c r="C344" s="6" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="345" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B345" s="17"/>
-      <c r="C345" s="6"/>
+      <c r="A345" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B345" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="C345" s="6" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="346" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A346" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B346" s="16" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C346" s="6" t="s">
         <v>27</v>
@@ -5452,10 +5467,10 @@
     </row>
     <row r="347" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A347" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B347" s="16" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C347" s="6" t="s">
         <v>27</v>
@@ -5463,10 +5478,10 @@
     </row>
     <row r="348" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A348" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B348" s="16" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C348" s="6" t="s">
         <v>27</v>
@@ -5474,10 +5489,10 @@
     </row>
     <row r="349" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A349" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B349" s="16" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C349" s="6" t="s">
         <v>27</v>
@@ -5485,10 +5500,10 @@
     </row>
     <row r="350" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A350" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B350" s="16" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C350" s="6" t="s">
         <v>27</v>
@@ -5496,10 +5511,10 @@
     </row>
     <row r="351" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A351" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B351" s="16" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C351" s="6" t="s">
         <v>27</v>
@@ -5507,10 +5522,10 @@
     </row>
     <row r="352" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A352" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="B352" s="16" t="s">
-        <v>355</v>
+        <v>347</v>
+      </c>
+      <c r="B352" s="18" t="s">
+        <v>356</v>
       </c>
       <c r="C352" s="6" t="s">
         <v>27</v>
@@ -5518,10 +5533,10 @@
     </row>
     <row r="353" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A353" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B353" s="16" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C353" s="6" t="s">
         <v>27</v>
@@ -5529,10 +5544,10 @@
     </row>
     <row r="354" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A354" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="B354" s="18" t="s">
-        <v>357</v>
+        <v>347</v>
+      </c>
+      <c r="B354" s="16" t="s">
+        <v>358</v>
       </c>
       <c r="C354" s="6" t="s">
         <v>27</v>
@@ -5540,10 +5555,10 @@
     </row>
     <row r="355" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A355" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B355" s="16" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C355" s="6" t="s">
         <v>27</v>
@@ -5551,10 +5566,10 @@
     </row>
     <row r="356" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A356" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B356" s="16" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C356" s="6" t="s">
         <v>27</v>
@@ -5562,10 +5577,10 @@
     </row>
     <row r="357" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A357" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B357" s="16" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C357" s="6" t="s">
         <v>27</v>
@@ -5573,10 +5588,10 @@
     </row>
     <row r="358" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A358" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B358" s="16" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C358" s="6" t="s">
         <v>27</v>
@@ -5584,10 +5599,10 @@
     </row>
     <row r="359" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A359" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B359" s="16" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C359" s="6" t="s">
         <v>27</v>
@@ -5595,10 +5610,10 @@
     </row>
     <row r="360" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A360" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B360" s="16" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C360" s="6" t="s">
         <v>27</v>
@@ -5606,51 +5621,51 @@
     </row>
     <row r="361" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A361" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B361" s="16" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C361" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A362" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="B362" s="16" t="s">
-        <v>365</v>
-      </c>
-      <c r="C362" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="B362" s="17"/>
+      <c r="C362" s="6"/>
     </row>
     <row r="363" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A363" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="B363" s="16" t="s">
+      <c r="B363" s="17"/>
+      <c r="C363" s="6"/>
+    </row>
+    <row r="364" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A364" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="C363" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="364" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B364" s="17"/>
-      <c r="C364" s="6"/>
+      <c r="B364" s="16" t="s">
+        <v>367</v>
+      </c>
+      <c r="C364" s="6" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="365" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B365" s="17"/>
-      <c r="C365" s="6"/>
+      <c r="A365" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="B365" s="16" t="s">
+        <v>368</v>
+      </c>
+      <c r="C365" s="6" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="366" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A366" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B366" s="16" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C366" s="6" t="s">
         <v>27</v>
@@ -5658,10 +5673,10 @@
     </row>
     <row r="367" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A367" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B367" s="16" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C367" s="6" t="s">
         <v>27</v>
@@ -5669,10 +5684,10 @@
     </row>
     <row r="368" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A368" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B368" s="16" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C368" s="6" t="s">
         <v>27</v>
@@ -5680,10 +5695,10 @@
     </row>
     <row r="369" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A369" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B369" s="16" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C369" s="6" t="s">
         <v>27</v>
@@ -5691,10 +5706,10 @@
     </row>
     <row r="370" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A370" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B370" s="16" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C370" s="6" t="s">
         <v>27</v>
@@ -5702,10 +5717,10 @@
     </row>
     <row r="371" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A371" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B371" s="16" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C371" s="6" t="s">
         <v>27</v>
@@ -5713,10 +5728,10 @@
     </row>
     <row r="372" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A372" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B372" s="16" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C372" s="6" t="s">
         <v>27</v>
@@ -5724,10 +5739,10 @@
     </row>
     <row r="373" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A373" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B373" s="16" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C373" s="6" t="s">
         <v>27</v>
@@ -5735,10 +5750,10 @@
     </row>
     <row r="374" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A374" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B374" s="16" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C374" s="6" t="s">
         <v>27</v>
@@ -5746,10 +5761,10 @@
     </row>
     <row r="375" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A375" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B375" s="16" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C375" s="6" t="s">
         <v>27</v>
@@ -5757,10 +5772,10 @@
     </row>
     <row r="376" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A376" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B376" s="16" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C376" s="6" t="s">
         <v>27</v>
@@ -5768,10 +5783,10 @@
     </row>
     <row r="377" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A377" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B377" s="16" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C377" s="6" t="s">
         <v>27</v>
@@ -5779,10 +5794,10 @@
     </row>
     <row r="378" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A378" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B378" s="16" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C378" s="6" t="s">
         <v>27</v>
@@ -5790,10 +5805,10 @@
     </row>
     <row r="379" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A379" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B379" s="16" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C379" s="6" t="s">
         <v>27</v>
@@ -5801,10 +5816,10 @@
     </row>
     <row r="380" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A380" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B380" s="16" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C380" s="6" t="s">
         <v>27</v>
@@ -5812,10 +5827,10 @@
     </row>
     <row r="381" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A381" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B381" s="16" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C381" s="6" t="s">
         <v>27</v>
@@ -5823,10 +5838,10 @@
     </row>
     <row r="382" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A382" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B382" s="16" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C382" s="6" t="s">
         <v>27</v>
@@ -5834,10 +5849,10 @@
     </row>
     <row r="383" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A383" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B383" s="16" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C383" s="6" t="s">
         <v>27</v>
@@ -5845,10 +5860,10 @@
     </row>
     <row r="384" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A384" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B384" s="16" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C384" s="6" t="s">
         <v>27</v>
@@ -5856,10 +5871,10 @@
     </row>
     <row r="385" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A385" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B385" s="16" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C385" s="6" t="s">
         <v>27</v>
@@ -5867,10 +5882,10 @@
     </row>
     <row r="386" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A386" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B386" s="16" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C386" s="6" t="s">
         <v>27</v>
@@ -5878,10 +5893,10 @@
     </row>
     <row r="387" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A387" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B387" s="16" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C387" s="6" t="s">
         <v>27</v>
@@ -5889,10 +5904,10 @@
     </row>
     <row r="388" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A388" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B388" s="16" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C388" s="6" t="s">
         <v>27</v>
@@ -5900,10 +5915,10 @@
     </row>
     <row r="389" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A389" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B389" s="16" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C389" s="6" t="s">
         <v>27</v>
@@ -5911,10 +5926,10 @@
     </row>
     <row r="390" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A390" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B390" s="16" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C390" s="6" t="s">
         <v>27</v>
@@ -5922,10 +5937,10 @@
     </row>
     <row r="391" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A391" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B391" s="16" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C391" s="6" t="s">
         <v>27</v>
@@ -5933,10 +5948,10 @@
     </row>
     <row r="392" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A392" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B392" s="16" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C392" s="6" t="s">
         <v>27</v>
@@ -5944,10 +5959,10 @@
     </row>
     <row r="393" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A393" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B393" s="16" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C393" s="6" t="s">
         <v>27</v>
@@ -5955,10 +5970,10 @@
     </row>
     <row r="394" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A394" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B394" s="16" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C394" s="6" t="s">
         <v>27</v>
@@ -5966,10 +5981,10 @@
     </row>
     <row r="395" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A395" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B395" s="16" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C395" s="6" t="s">
         <v>27</v>
@@ -5977,10 +5992,10 @@
     </row>
     <row r="396" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A396" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B396" s="16" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C396" s="6" t="s">
         <v>27</v>
@@ -5988,10 +6003,10 @@
     </row>
     <row r="397" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A397" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B397" s="16" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C397" s="6" t="s">
         <v>27</v>
@@ -5999,7 +6014,7 @@
     </row>
     <row r="398" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A398" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B398" s="16" t="s">
         <v>400</v>
@@ -6010,7 +6025,7 @@
     </row>
     <row r="399" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A399" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B399" s="16" t="s">
         <v>401</v>
@@ -6021,10 +6036,10 @@
     </row>
     <row r="400" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A400" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B400" s="16" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C400" s="6" t="s">
         <v>27</v>
@@ -6032,10 +6047,10 @@
     </row>
     <row r="401" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A401" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B401" s="16" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C401" s="6" t="s">
         <v>27</v>
@@ -6043,10 +6058,10 @@
     </row>
     <row r="402" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A402" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B402" s="16" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C402" s="6" t="s">
         <v>27</v>
@@ -6054,10 +6069,10 @@
     </row>
     <row r="403" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A403" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B403" s="16" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C403" s="6" t="s">
         <v>27</v>
@@ -6065,10 +6080,10 @@
     </row>
     <row r="404" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A404" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B404" s="16" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C404" s="6" t="s">
         <v>27</v>
@@ -6076,10 +6091,10 @@
     </row>
     <row r="405" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A405" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B405" s="16" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C405" s="6" t="s">
         <v>27</v>
@@ -6087,10 +6102,10 @@
     </row>
     <row r="406" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A406" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B406" s="16" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C406" s="6" t="s">
         <v>27</v>
@@ -6098,51 +6113,51 @@
     </row>
     <row r="407" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A407" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B407" s="16" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C407" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A408" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="B408" s="16" t="s">
-        <v>409</v>
-      </c>
-      <c r="C408" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="B408" s="17"/>
+      <c r="C408" s="6"/>
     </row>
     <row r="409" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A409" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="B409" s="16" t="s">
+      <c r="B409" s="17"/>
+      <c r="C409" s="6"/>
+    </row>
+    <row r="410" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A410" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="C409" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="410" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B410" s="17"/>
-      <c r="C410" s="6"/>
+      <c r="B410" s="16" t="s">
+        <v>411</v>
+      </c>
+      <c r="C410" s="6" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="411" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B411" s="17"/>
-      <c r="C411" s="6"/>
+      <c r="A411" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="B411" s="16" t="s">
+        <v>412</v>
+      </c>
+      <c r="C411" s="6" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="412" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A412" s="7" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B412" s="16" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C412" s="6" t="s">
         <v>27</v>
@@ -6150,10 +6165,10 @@
     </row>
     <row r="413" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A413" s="7" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B413" s="16" t="s">
-        <v>413</v>
+        <v>77</v>
       </c>
       <c r="C413" s="6" t="s">
         <v>27</v>
@@ -6161,7 +6176,7 @@
     </row>
     <row r="414" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A414" s="7" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B414" s="16" t="s">
         <v>414</v>
@@ -6172,51 +6187,51 @@
     </row>
     <row r="415" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A415" s="7" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B415" s="16" t="s">
-        <v>78</v>
+        <v>415</v>
       </c>
       <c r="C415" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A416" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="B416" s="16" t="s">
-        <v>415</v>
-      </c>
-      <c r="C416" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="B416" s="17"/>
+      <c r="C416" s="6"/>
     </row>
     <row r="417" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A417" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="B417" s="16" t="s">
+      <c r="B417" s="17"/>
+      <c r="C417" s="6"/>
+    </row>
+    <row r="418" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A418" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="C417" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="418" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B418" s="17"/>
-      <c r="C418" s="6"/>
+      <c r="B418" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="C418" s="6" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="419" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B419" s="17"/>
-      <c r="C419" s="6"/>
+      <c r="A419" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B419" s="16" t="s">
+        <v>418</v>
+      </c>
+      <c r="C419" s="6" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="420" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A420" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B420" s="16" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C420" s="6" t="s">
         <v>27</v>
@@ -6224,10 +6239,10 @@
     </row>
     <row r="421" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A421" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B421" s="16" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C421" s="6" t="s">
         <v>27</v>
@@ -6235,10 +6250,10 @@
     </row>
     <row r="422" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A422" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B422" s="16" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C422" s="6" t="s">
         <v>27</v>
@@ -6246,10 +6261,10 @@
     </row>
     <row r="423" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A423" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B423" s="16" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C423" s="6" t="s">
         <v>27</v>
@@ -6257,10 +6272,10 @@
     </row>
     <row r="424" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A424" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B424" s="16" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C424" s="6" t="s">
         <v>27</v>
@@ -6268,10 +6283,10 @@
     </row>
     <row r="425" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A425" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B425" s="16" t="s">
-        <v>423</v>
+        <v>296</v>
       </c>
       <c r="C425" s="6" t="s">
         <v>27</v>
@@ -6279,7 +6294,7 @@
     </row>
     <row r="426" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A426" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B426" s="16" t="s">
         <v>424</v>
@@ -6290,10 +6305,10 @@
     </row>
     <row r="427" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A427" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B427" s="16" t="s">
-        <v>297</v>
+        <v>425</v>
       </c>
       <c r="C427" s="6" t="s">
         <v>27</v>
@@ -6301,10 +6316,10 @@
     </row>
     <row r="428" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A428" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B428" s="16" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C428" s="6" t="s">
         <v>27</v>
@@ -6312,10 +6327,10 @@
     </row>
     <row r="429" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A429" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B429" s="16" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C429" s="6" t="s">
         <v>27</v>
@@ -6323,10 +6338,10 @@
     </row>
     <row r="430" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A430" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B430" s="16" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C430" s="6" t="s">
         <v>27</v>
@@ -6334,10 +6349,10 @@
     </row>
     <row r="431" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A431" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B431" s="16" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C431" s="6" t="s">
         <v>27</v>
@@ -6345,10 +6360,10 @@
     </row>
     <row r="432" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A432" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B432" s="16" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C432" s="6" t="s">
         <v>27</v>
@@ -6356,10 +6371,10 @@
     </row>
     <row r="433" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A433" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B433" s="16" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C433" s="6" t="s">
         <v>27</v>
@@ -6367,10 +6382,10 @@
     </row>
     <row r="434" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A434" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B434" s="16" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C434" s="6" t="s">
         <v>27</v>
@@ -6378,10 +6393,10 @@
     </row>
     <row r="435" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A435" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B435" s="16" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C435" s="6" t="s">
         <v>27</v>
@@ -6389,10 +6404,10 @@
     </row>
     <row r="436" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A436" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B436" s="16" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C436" s="6" t="s">
         <v>27</v>
@@ -6400,10 +6415,10 @@
     </row>
     <row r="437" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A437" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B437" s="16" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C437" s="6" t="s">
         <v>27</v>
@@ -6411,10 +6426,10 @@
     </row>
     <row r="438" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A438" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B438" s="16" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C438" s="6" t="s">
         <v>27</v>
@@ -6422,10 +6437,10 @@
     </row>
     <row r="439" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A439" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B439" s="16" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C439" s="6" t="s">
         <v>27</v>
@@ -6433,10 +6448,10 @@
     </row>
     <row r="440" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A440" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B440" s="16" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C440" s="6" t="s">
         <v>27</v>
@@ -6444,10 +6459,10 @@
     </row>
     <row r="441" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A441" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B441" s="16" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C441" s="6" t="s">
         <v>27</v>
@@ -6455,10 +6470,10 @@
     </row>
     <row r="442" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A442" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B442" s="16" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C442" s="6" t="s">
         <v>27</v>
@@ -6466,10 +6481,10 @@
     </row>
     <row r="443" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A443" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B443" s="16" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C443" s="6" t="s">
         <v>27</v>
@@ -6477,10 +6492,10 @@
     </row>
     <row r="444" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A444" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B444" s="16" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C444" s="6" t="s">
         <v>27</v>
@@ -6488,10 +6503,10 @@
     </row>
     <row r="445" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A445" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B445" s="16" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C445" s="6" t="s">
         <v>27</v>
@@ -6499,10 +6514,10 @@
     </row>
     <row r="446" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A446" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B446" s="16" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C446" s="6" t="s">
         <v>27</v>
@@ -6510,10 +6525,10 @@
     </row>
     <row r="447" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A447" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B447" s="16" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C447" s="6" t="s">
         <v>27</v>
@@ -6521,10 +6536,10 @@
     </row>
     <row r="448" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A448" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B448" s="16" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C448" s="6" t="s">
         <v>27</v>
@@ -6532,10 +6547,10 @@
     </row>
     <row r="449" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A449" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B449" s="16" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C449" s="6" t="s">
         <v>27</v>
@@ -6543,10 +6558,10 @@
     </row>
     <row r="450" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A450" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B450" s="16" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C450" s="6" t="s">
         <v>27</v>
@@ -6554,10 +6569,10 @@
     </row>
     <row r="451" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A451" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B451" s="16" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C451" s="6" t="s">
         <v>27</v>
@@ -6565,10 +6580,10 @@
     </row>
     <row r="452" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A452" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B452" s="16" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C452" s="6" t="s">
         <v>27</v>
@@ -6576,10 +6591,10 @@
     </row>
     <row r="453" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A453" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B453" s="16" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C453" s="6" t="s">
         <v>27</v>
@@ -6587,10 +6602,10 @@
     </row>
     <row r="454" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A454" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B454" s="16" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C454" s="6" t="s">
         <v>27</v>
@@ -6598,10 +6613,10 @@
     </row>
     <row r="455" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A455" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B455" s="16" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C455" s="6" t="s">
         <v>27</v>
@@ -6609,10 +6624,10 @@
     </row>
     <row r="456" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A456" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B456" s="16" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C456" s="6" t="s">
         <v>27</v>
@@ -6620,10 +6635,10 @@
     </row>
     <row r="457" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A457" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B457" s="16" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C457" s="6" t="s">
         <v>27</v>
@@ -6631,10 +6646,10 @@
     </row>
     <row r="458" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A458" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B458" s="16" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C458" s="6" t="s">
         <v>27</v>
@@ -6642,10 +6657,10 @@
     </row>
     <row r="459" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A459" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B459" s="16" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C459" s="6" t="s">
         <v>27</v>
@@ -6653,10 +6668,10 @@
     </row>
     <row r="460" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A460" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B460" s="16" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C460" s="6" t="s">
         <v>27</v>
@@ -6664,10 +6679,10 @@
     </row>
     <row r="461" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A461" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B461" s="16" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C461" s="6" t="s">
         <v>27</v>
@@ -6675,10 +6690,10 @@
     </row>
     <row r="462" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A462" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B462" s="16" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C462" s="6" t="s">
         <v>27</v>
@@ -6686,10 +6701,10 @@
     </row>
     <row r="463" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A463" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B463" s="16" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C463" s="6" t="s">
         <v>27</v>
@@ -6697,10 +6712,10 @@
     </row>
     <row r="464" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A464" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B464" s="16" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C464" s="6" t="s">
         <v>27</v>
@@ -6708,10 +6723,10 @@
     </row>
     <row r="465" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A465" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B465" s="16" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C465" s="6" t="s">
         <v>27</v>
@@ -6719,10 +6734,10 @@
     </row>
     <row r="466" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A466" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B466" s="16" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C466" s="6" t="s">
         <v>27</v>
@@ -6730,10 +6745,10 @@
     </row>
     <row r="467" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A467" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B467" s="16" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C467" s="6" t="s">
         <v>27</v>
@@ -6741,10 +6756,10 @@
     </row>
     <row r="468" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A468" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B468" s="16" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C468" s="6" t="s">
         <v>27</v>
@@ -6752,10 +6767,10 @@
     </row>
     <row r="469" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A469" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B469" s="16" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C469" s="6" t="s">
         <v>27</v>
@@ -6763,10 +6778,10 @@
     </row>
     <row r="470" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A470" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B470" s="16" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C470" s="6" t="s">
         <v>27</v>
@@ -6774,10 +6789,10 @@
     </row>
     <row r="471" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A471" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B471" s="16" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C471" s="6" t="s">
         <v>27</v>
@@ -6785,10 +6800,10 @@
     </row>
     <row r="472" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A472" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B472" s="16" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C472" s="6" t="s">
         <v>27</v>
@@ -6796,10 +6811,10 @@
     </row>
     <row r="473" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A473" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B473" s="16" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C473" s="6" t="s">
         <v>27</v>
@@ -6807,10 +6822,10 @@
     </row>
     <row r="474" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A474" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B474" s="16" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C474" s="6" t="s">
         <v>27</v>
@@ -6818,10 +6833,10 @@
     </row>
     <row r="475" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A475" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B475" s="16" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C475" s="6" t="s">
         <v>27</v>
@@ -6829,10 +6844,10 @@
     </row>
     <row r="476" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A476" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B476" s="16" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C476" s="6" t="s">
         <v>27</v>
@@ -6840,52 +6855,52 @@
     </row>
     <row r="477" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A477" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B477" s="16" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C477" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="478" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A478" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="B478" s="16" t="s">
-        <v>475</v>
-      </c>
-      <c r="C478" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="B478" s="17"/>
+      <c r="C478" s="6"/>
     </row>
     <row r="479" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A479" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="B479" s="16" t="s">
+      <c r="A479" s="7"/>
+      <c r="B479" s="17"/>
+      <c r="C479" s="6"/>
+    </row>
+    <row r="480" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A480" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="C479" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="480" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B480" s="17"/>
-      <c r="C480" s="6"/>
+      <c r="B480" s="16" t="s">
+        <v>477</v>
+      </c>
+      <c r="C480" s="6" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="481" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A481" s="7"/>
-      <c r="B481" s="17"/>
-      <c r="C481" s="6"/>
+      <c r="A481" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="B481" s="16" t="s">
+        <v>478</v>
+      </c>
+      <c r="C481" s="6" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="482" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A482" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B482" s="16" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C482" s="6" t="s">
         <v>27</v>
@@ -6893,10 +6908,10 @@
     </row>
     <row r="483" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A483" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B483" s="16" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C483" s="6" t="s">
         <v>27</v>
@@ -6904,10 +6919,10 @@
     </row>
     <row r="484" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A484" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B484" s="16" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C484" s="6" t="s">
         <v>27</v>
@@ -6915,10 +6930,10 @@
     </row>
     <row r="485" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A485" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B485" s="16" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C485" s="6" t="s">
         <v>27</v>
@@ -6926,10 +6941,10 @@
     </row>
     <row r="486" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A486" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B486" s="16" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C486" s="6" t="s">
         <v>27</v>
@@ -6937,10 +6952,10 @@
     </row>
     <row r="487" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A487" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B487" s="16" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C487" s="6" t="s">
         <v>27</v>
@@ -6948,10 +6963,10 @@
     </row>
     <row r="488" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A488" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B488" s="16" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C488" s="6" t="s">
         <v>27</v>
@@ -6959,37 +6974,17 @@
     </row>
     <row r="489" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A489" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B489" s="16" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C489" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="490" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A490" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="B490" s="16" t="s">
-        <v>486</v>
-      </c>
-      <c r="C490" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="491" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A491" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="B491" s="16" t="s">
-        <v>487</v>
-      </c>
-      <c r="C491" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
+    <row r="490" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="491" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="492" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="493" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="494" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -7507,8 +7502,8 @@
     <row r="1006" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1007" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1008" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1009" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1010" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="Youtube Channel: https://www.youtube.com/channel/UCQHLxxBFrbfdrk1jF0moTpw "/>
@@ -7520,456 +7515,454 @@
     <hyperlink ref="B11" r:id="rId7" display="https://youtu.be/yUNRHq8Q-f8"/>
     <hyperlink ref="B15" r:id="rId8" display="Kadane's Algo [V.V.V.V.V IMP]"/>
     <hyperlink ref="D15" r:id="rId9" display="https://youtu.be/GJOCyFMiFTE"/>
-    <hyperlink ref="B16" r:id="rId10" display="find Largest sum contiguous Subarray [V. IMP]"/>
-    <hyperlink ref="D16" r:id="rId11" display="https://youtu.be/GJOCyFMiFTE"/>
-    <hyperlink ref="B17" r:id="rId12" display="Reverse the array"/>
-    <hyperlink ref="D17" r:id="rId13" display="https://youtu.be/KKWc1WFG_pQ"/>
-    <hyperlink ref="B18" r:id="rId14" display="Find longest coinsecutive subsequence"/>
-    <hyperlink ref="D18" r:id="rId15" display="https://youtu.be/i72zMFMhha8"/>
-    <hyperlink ref="B20" r:id="rId16" display="Find the maximum and minimum element in an array"/>
-    <hyperlink ref="B21" r:id="rId17" display="Find the &quot;Kth&quot; max and min element of an array "/>
-    <hyperlink ref="B22" r:id="rId18" display="Given an array which consists of only 0, 1 and 2. Sort the array without using any sorting algo"/>
-    <hyperlink ref="B23" r:id="rId19" display="Move all the negative elements to one side of the array "/>
-    <hyperlink ref="B24" r:id="rId20" display="Find the Union and Intersection of the two sorted arrays."/>
-    <hyperlink ref="B25" r:id="rId21" display="Write a program to cyclically rotate an array by one."/>
-    <hyperlink ref="B26" r:id="rId22" display="Minimise the maximum difference between heights [V.IMP]"/>
-    <hyperlink ref="B27" r:id="rId23" display="Minimum no. of Jumps to reach end of an array"/>
-    <hyperlink ref="B28" r:id="rId24" display="find duplicate in an array of N+1 Integers"/>
-    <hyperlink ref="B29" r:id="rId25" display="Merge 2 sorted arrays without using Extra space."/>
-    <hyperlink ref="B30" r:id="rId26" display="Merge Intervals"/>
-    <hyperlink ref="B31" r:id="rId27" display="Next Permutation"/>
-    <hyperlink ref="B32" r:id="rId28" display="Count Inversion"/>
-    <hyperlink ref="B33" r:id="rId29" display="Best time to buy and Sell stock"/>
-    <hyperlink ref="B34" r:id="rId30" display="find all pairs on integer array whose sum is equal to given number"/>
-    <hyperlink ref="B35" r:id="rId31" display="find common elements In 3 sorted arrays"/>
-    <hyperlink ref="B36" r:id="rId32" display="Rearrange the array in alternating positive and negative items with O(1) extra space"/>
-    <hyperlink ref="B37" r:id="rId33" display="Find if there is any subarray with sum equal to 0"/>
-    <hyperlink ref="B38" r:id="rId34" display="Find factorial of a large number"/>
-    <hyperlink ref="B39" r:id="rId35" display="find maximum product subarray "/>
-    <hyperlink ref="B40" r:id="rId36" display="Given an array of size n and a number k, fin all elements that appear more than &quot; n/k &quot; times."/>
-    <hyperlink ref="B41" r:id="rId37" display="Maximum profit by buying and selling a share atmost twice"/>
-    <hyperlink ref="B42" r:id="rId38" display="Find whether an array is a subset of another array"/>
-    <hyperlink ref="B43" r:id="rId39" display="Find the triplet that sum to a given value"/>
-    <hyperlink ref="B44" r:id="rId40" display="Trapping Rain water problem"/>
-    <hyperlink ref="B45" r:id="rId41" display="Chocolate Distribution problem"/>
-    <hyperlink ref="B46" r:id="rId42" display="Smallest Subarray with sum greater than a given value"/>
-    <hyperlink ref="B47" r:id="rId43" display="Three way partitioning of an array around a given value"/>
-    <hyperlink ref="B48" r:id="rId44" display="Minimum swaps required bring elements less equal K together"/>
-    <hyperlink ref="B49" r:id="rId45" display="Minimum no. of operations required to make an array palindrome"/>
-    <hyperlink ref="B50" r:id="rId46" display="Median of 2 sorted arrays of equal size"/>
-    <hyperlink ref="B51" r:id="rId47" display="Median of 2 sorted arrays of different size"/>
-    <hyperlink ref="B54" r:id="rId48" display="Kth smallest element in a row-cpumn wise sorted matrix"/>
-    <hyperlink ref="D54" r:id="rId49" display="https://youtu.be/rLcM3aMFzy8?t=1170"/>
-    <hyperlink ref="B55" r:id="rId50" display="Spiral traversal on a Matrix"/>
-    <hyperlink ref="B56" r:id="rId51" display="Search an element in a matriix"/>
-    <hyperlink ref="B57" r:id="rId52" display="Find median in a row wise sorted matrix"/>
-    <hyperlink ref="B58" r:id="rId53" display="Find row with maximum no. of 1's"/>
-    <hyperlink ref="B59" r:id="rId54" display="Print elements in sorted order using row-column wise sorted matrix"/>
-    <hyperlink ref="B60" r:id="rId55" display="Maximum size rectangle"/>
-    <hyperlink ref="B61" r:id="rId56" display="Find a specific pair in matrix"/>
-    <hyperlink ref="B62" r:id="rId57" display="Rotate matrix by 90 degrees"/>
-    <hyperlink ref="B63" r:id="rId58" display="Common elements in all rows of a given matrix"/>
-    <hyperlink ref="B66" r:id="rId59" display="Reverse a String"/>
-    <hyperlink ref="D66" r:id="rId60" display="https://youtu.be/KKWc1WFG_pQ"/>
-    <hyperlink ref="B67" r:id="rId61" display="Given a sequence of words, print all anagrams together"/>
-    <hyperlink ref="D67" r:id="rId62" display="https://youtu.be/NVIm5_TIqUs"/>
-    <hyperlink ref="B68" r:id="rId63" display="Check whether a String is Palindrome or not"/>
-    <hyperlink ref="B69" r:id="rId64" display="Find Duplicate characters in a string"/>
-    <hyperlink ref="B71" r:id="rId65" display="Write a Code to check whether one string is a rotation of another"/>
-    <hyperlink ref="B72" r:id="rId66" display="Write a Program to check whether a string is a valid shuffle of two strings or not"/>
-    <hyperlink ref="B73" r:id="rId67" display="Count and Say problem"/>
-    <hyperlink ref="B74" r:id="rId68" display="Write a program to find the longest Palindrome in a string.[ Longest palindromic Substring]"/>
-    <hyperlink ref="B75" r:id="rId69" display="Find Longest Recurring Subsequence in String"/>
-    <hyperlink ref="B76" r:id="rId70" display="Print all Subsequences of a string."/>
-    <hyperlink ref="B77" r:id="rId71" display="Print all the permutations of the given string"/>
-    <hyperlink ref="B78" r:id="rId72" display="Split the Binary string into two substring with equal 0’s and 1’s"/>
-    <hyperlink ref="B79" r:id="rId73" display="Word Wrap Problem [VERY IMP]."/>
-    <hyperlink ref="B80" r:id="rId74" display="EDIT Distance [Very Imp]"/>
-    <hyperlink ref="B81" r:id="rId75" display="Find next greater number with same set of digits. [Very Very IMP]"/>
-    <hyperlink ref="B82" r:id="rId76" display="Balanced Parenthesis problem.[Imp]"/>
-    <hyperlink ref="B83" r:id="rId77" display="Word break Problem[ Very Imp]"/>
-    <hyperlink ref="B84" r:id="rId78" display="Rabin Karp Algo"/>
-    <hyperlink ref="B85" r:id="rId79" display="KMP Algo"/>
-    <hyperlink ref="B86" r:id="rId80" display="Convert a Sentence into its equivalent mobile numeric keypad sequence."/>
-    <hyperlink ref="B87" r:id="rId81" display="Minimum number of bracket reversals needed to make an expression balanced."/>
-    <hyperlink ref="B88" r:id="rId82" display="Count All Palindromic Subsequence in a given String."/>
-    <hyperlink ref="B89" r:id="rId83" display="Count of number of given string in 2D character array"/>
-    <hyperlink ref="B90" r:id="rId84" display="Search a Word in a 2D Grid of characters."/>
-    <hyperlink ref="B91" r:id="rId85" display="Boyer Moore Algorithm for Pattern Searching."/>
-    <hyperlink ref="B92" r:id="rId86" display="Converting Roman Numerals to Decimal"/>
-    <hyperlink ref="B93" r:id="rId87" display="Longest Common Prefix"/>
-    <hyperlink ref="B94" r:id="rId88" display="Number of flips to make binary string alternate"/>
-    <hyperlink ref="B95" r:id="rId89" display="Find the first repeated word in string."/>
-    <hyperlink ref="B96" r:id="rId90" display="Minimum number of swaps for bracket balancing."/>
-    <hyperlink ref="B97" r:id="rId91" display="Find the longest common subsequence between two strings."/>
-    <hyperlink ref="B98" r:id="rId92" display="Program to generate all possible valid IP addresses from given  string."/>
-    <hyperlink ref="B99" r:id="rId93" display="Write a program tofind the smallest window that contains all characters of string itself."/>
-    <hyperlink ref="B100" r:id="rId94" display="Rearrange characters in a string such that no two adjacent are same"/>
-    <hyperlink ref="B101" r:id="rId95" display="Minimum characters to be added at front to make string palindrome"/>
-    <hyperlink ref="B102" r:id="rId96" display="Find the smallest window in a string containing all characters of another string"/>
-    <hyperlink ref="B103" r:id="rId97" display="Recursively remove all adjacent duplicates"/>
-    <hyperlink ref="B104" r:id="rId98" display="String matching where one string contains wildcard characters"/>
-    <hyperlink ref="B105" r:id="rId99" display="Function to find Number of customers who could not get a computer"/>
-    <hyperlink ref="B106" r:id="rId100" display="Transform One String to Another using Minimum Number of Given Operation"/>
-    <hyperlink ref="B107" r:id="rId101" display="Check if two given strings are isomorphic to each other"/>
-    <hyperlink ref="B108" r:id="rId102" display="Recursively print all sentences that can be formed from list of word lists"/>
-    <hyperlink ref="B111" r:id="rId103" display="Find first and last positions of an element in a sorted array"/>
-    <hyperlink ref="B112" r:id="rId104" display="Find a Fixed Point (Value equal to index) in a given array"/>
-    <hyperlink ref="B113" r:id="rId105" display="Search in a rotated sorted array"/>
-    <hyperlink ref="B114" r:id="rId106" display="square root of an integer"/>
-    <hyperlink ref="B115" r:id="rId107" display="Maximum and minimum of an array using minimum number of comparisons"/>
-    <hyperlink ref="B116" r:id="rId108" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." display="Optimum location of point to minimize total distance"/>
-    <hyperlink ref="B117" r:id="rId109" display="Find the repeating and the missing"/>
-    <hyperlink ref="B118" r:id="rId110" display="find majority element"/>
-    <hyperlink ref="B119" r:id="rId111" display="Searching in an array where adjacent differ by at most k"/>
-    <hyperlink ref="B120" r:id="rId112" display="find a pair with a given difference"/>
-    <hyperlink ref="B121" r:id="rId113" display="find four elements that sum to a given value"/>
-    <hyperlink ref="B122" r:id="rId114" display="maximum sum such that no 2 elements are adjacent"/>
-    <hyperlink ref="B123" r:id="rId115" display="Count triplet with sum smaller than a given value"/>
-    <hyperlink ref="B124" r:id="rId116" display="merge 2 sorted arrays"/>
-    <hyperlink ref="B125" r:id="rId117" display="print all subarrays with 0 sum"/>
-    <hyperlink ref="B126" r:id="rId118" display="Product array Puzzle"/>
-    <hyperlink ref="B127" r:id="rId119" display="Sort array according to count of set bits"/>
-    <hyperlink ref="B128" r:id="rId120" display="minimum no. of swaps required to sort the array"/>
-    <hyperlink ref="B129" r:id="rId121" display="Bishu and Soldiers"/>
-    <hyperlink ref="B130" r:id="rId122" display="Rasta and Kheshtak"/>
-    <hyperlink ref="B131" r:id="rId123" display="Kth smallest number again"/>
-    <hyperlink ref="B132" r:id="rId124" display="Find pivot element in a sorted array"/>
-    <hyperlink ref="B133" r:id="rId125" display="K-th Element of Two Sorted Arrays"/>
-    <hyperlink ref="B134" r:id="rId126" display="Aggressive cows"/>
-    <hyperlink ref="B135" r:id="rId127" display="Book Allocation Problem"/>
-    <hyperlink ref="B136" r:id="rId128" display="EKOSPOJ:"/>
-    <hyperlink ref="B137" r:id="rId129" display="Job Scheduling Algo"/>
-    <hyperlink ref="B138" r:id="rId130" display="Missing Number in AP"/>
-    <hyperlink ref="B139" r:id="rId131" display="Smallest number with atleastn trailing zeroes infactorial"/>
-    <hyperlink ref="B140" r:id="rId132" display="Painters Partition Problem:"/>
-    <hyperlink ref="B141" r:id="rId133" display="ROTI-Prata SPOJ"/>
-    <hyperlink ref="B142" r:id="rId134" display="DoubleHelix SPOJ"/>
-    <hyperlink ref="B143" r:id="rId135" display="Subset Sums"/>
-    <hyperlink ref="B144" r:id="rId136" display="Findthe inversion count"/>
-    <hyperlink ref="B145" r:id="rId137" display="Implement Merge-sort in-place"/>
-    <hyperlink ref="B146" r:id="rId138" display="Partitioning and Sorting Arrays with Many Repeated Entries"/>
-    <hyperlink ref="B149" r:id="rId139" display="Write a Program to reverse the Linked List. (Both Iterative and recursive)"/>
-    <hyperlink ref="B150" r:id="rId140" display="Reverse a Linked List in group of Given Size. [Very Imp]"/>
-    <hyperlink ref="B151" r:id="rId141" display="Write a program to Detect loop in a linked list."/>
-    <hyperlink ref="B152" r:id="rId142" display="Write a program to Delete loop in a linked list."/>
-    <hyperlink ref="B153" r:id="rId143" display="Find the starting point of the loop. "/>
-    <hyperlink ref="B154" r:id="rId144" display="Remove Duplicates in a sorted Linked List."/>
-    <hyperlink ref="B155" r:id="rId145" display="Remove Duplicates in a Un-sorted Linked List."/>
-    <hyperlink ref="B156" r:id="rId146" display="Write a Program to Move the last element to Front in a Linked List."/>
-    <hyperlink ref="B157" r:id="rId147" display="Add “1” to a number represented as a Linked List."/>
-    <hyperlink ref="B158" r:id="rId148" display="Add two numbers represented by linked lists."/>
-    <hyperlink ref="B159" r:id="rId149" display="Intersection of two Sorted Linked List."/>
-    <hyperlink ref="B160" r:id="rId150" display="Intersection Point of two Linked Lists."/>
-    <hyperlink ref="B161" r:id="rId151" display="Merge Sort For Linked lists.[Very Important]"/>
-    <hyperlink ref="B162" r:id="rId152" display="Quicksort for Linked Lists.[Very Important]"/>
-    <hyperlink ref="B163" r:id="rId153" display="Find the middle Element of a linked list."/>
-    <hyperlink ref="B164" r:id="rId154" display="Check if a linked list is a circular linked list."/>
-    <hyperlink ref="B165" r:id="rId155" display="Split a Circular linked list into two halves."/>
-    <hyperlink ref="B166" r:id="rId156" display="Write a Program to check whether the Singly Linked list is a palindrome or not."/>
-    <hyperlink ref="B167" r:id="rId157" display="Deletion from a Circular Linked List."/>
-    <hyperlink ref="B168" r:id="rId158" display="Reverse a Doubly Linked list."/>
-    <hyperlink ref="B169" r:id="rId159" display="Find pairs with a given sum in a DLL."/>
-    <hyperlink ref="B170" r:id="rId160" display="Count triplets in a sorted DLL whose sum is equal to given value “X”."/>
-    <hyperlink ref="B171" r:id="rId161" display="Sort a “k”sorted Doubly Linked list.[Very IMP]"/>
-    <hyperlink ref="B172" r:id="rId162" display="Rotate DoublyLinked list by N nodes."/>
-    <hyperlink ref="B173" r:id="rId163" display="Rotate a Doubly Linked list in group of Given Size.[Very IMP]"/>
-    <hyperlink ref="B176" r:id="rId164" display="Flatten a Linked List"/>
-    <hyperlink ref="B177" r:id="rId165" display="Sort a LL of 0's, 1's and 2's"/>
-    <hyperlink ref="B178" r:id="rId166" display="Clone a linked list with next and random pointer"/>
-    <hyperlink ref="B179" r:id="rId167" display="Merge K sorted Linked list"/>
-    <hyperlink ref="B180" r:id="rId168" display="Multiply 2 no. represented by LL"/>
-    <hyperlink ref="B181" r:id="rId169" display="Delete nodes which have a greater value on right side"/>
-    <hyperlink ref="B182" r:id="rId170" display="Segregate even and odd nodes in a Linked List"/>
-    <hyperlink ref="B183" r:id="rId171" display="Program for n’th node from the end of a Linked List"/>
-    <hyperlink ref="B184" r:id="rId172" display="Find the first non-repeating character from a stream of characters"/>
-    <hyperlink ref="B187" r:id="rId173" display="level order traversal"/>
-    <hyperlink ref="B188" r:id="rId174" display="Reverse Level Order traversal"/>
-    <hyperlink ref="B189" r:id="rId175" display="Height of a tree"/>
-    <hyperlink ref="B190" r:id="rId176" display="Diameter of a tree"/>
-    <hyperlink ref="B191" r:id="rId177" display="Mirror of a tree"/>
-    <hyperlink ref="B192" r:id="rId178" display="Inorder Traversal of a tree both using recursion and Iteration"/>
-    <hyperlink ref="B193" r:id="rId179" display="Preorder Traversal of a tree both using recursion and Iteration"/>
-    <hyperlink ref="B194" r:id="rId180" display="Postorder Traversal of a tree both using recursion and Iteration"/>
-    <hyperlink ref="B195" r:id="rId181" display="Left View of a tree"/>
-    <hyperlink ref="B196" r:id="rId182" display="Right View of Tree"/>
-    <hyperlink ref="B197" r:id="rId183" display="Top View of a tree"/>
-    <hyperlink ref="B198" r:id="rId184" display="Bottom View of a tree"/>
-    <hyperlink ref="B199" r:id="rId185" display="Zig-Zag traversal of a binary tree"/>
-    <hyperlink ref="B200" r:id="rId186" display="Check if a tree is balanced or not"/>
-    <hyperlink ref="B201" r:id="rId187" display="Diagnol Traversal of a Binary tree"/>
-    <hyperlink ref="B202" r:id="rId188" display="Boundary traversal of a Binary tree"/>
-    <hyperlink ref="B203" r:id="rId189" display="Construct Binary Tree from String with Bracket Representation"/>
-    <hyperlink ref="B204" r:id="rId190" display="Convert Binary tree into Doubly Linked List"/>
-    <hyperlink ref="B205" r:id="rId191" display="Convert Binary tree into Sum tree"/>
-    <hyperlink ref="B206" r:id="rId192" display="Construct Binary tree from Inorder and preorder traversal"/>
-    <hyperlink ref="B207" r:id="rId193" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." display="Find minimum swaps required to convert a Binary tree into BST"/>
-    <hyperlink ref="B208" r:id="rId194" display="Check if Binary tree is Sum tree or not"/>
-    <hyperlink ref="B209" r:id="rId195" display="Check if all leaf nodes are at same level or not"/>
-    <hyperlink ref="B210" r:id="rId196" display="Check if a Binary Tree contains duplicate subtrees of size 2 or more [ IMP ]"/>
-    <hyperlink ref="B211" r:id="rId197" display="Check if 2 trees are mirror or not"/>
-    <hyperlink ref="B212" r:id="rId198" display="Sum of Nodes on the Longest path from root to leaf node "/>
-    <hyperlink ref="B213" r:id="rId199" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." display="Check if given graph is tree or not.  [ IMP ]"/>
-    <hyperlink ref="B214" r:id="rId200" display="Find Largest subtree sum in a tree"/>
-    <hyperlink ref="B215" r:id="rId201" display="Maximum Sum of nodes in Binary tree such that no two are adjacent "/>
-    <hyperlink ref="B216" r:id="rId202" display="Print all &quot;K&quot; Sum paths in a Binary tree"/>
-    <hyperlink ref="B217" r:id="rId203" display="Find LCA in a Binary tree"/>
-    <hyperlink ref="B218" r:id="rId204" display="Find distance between 2 nodes in a Binary tree"/>
-    <hyperlink ref="B219" r:id="rId205" display="Kth Ancestor of node in a Binary tree"/>
-    <hyperlink ref="B220" r:id="rId206" display="Find all Duplicate subtrees in a Binary tree [ IMP ]"/>
-    <hyperlink ref="B221" r:id="rId207" display="Tree Isomorphism Problem"/>
-    <hyperlink ref="B224" r:id="rId208" display="Fina a value in a BST"/>
-    <hyperlink ref="B225" r:id="rId209" display="Deletion of a node in a BST"/>
-    <hyperlink ref="B226" r:id="rId210" display="Find min and max value in a BST"/>
-    <hyperlink ref="B227" r:id="rId211" display="Find inorder successor and inorder predecessor in a BST"/>
-    <hyperlink ref="B228" r:id="rId212" display="Check if a tree is a BST or not "/>
-    <hyperlink ref="B229" r:id="rId213" display="Populate Inorder successor of all nodes"/>
-    <hyperlink ref="B230" r:id="rId214" display="Find LCA  of 2 nodes in a BST"/>
-    <hyperlink ref="B231" r:id="rId215" display="Construct BST from preorder traversal"/>
-    <hyperlink ref="B232" r:id="rId216" display="Convert Binary tree into BST"/>
-    <hyperlink ref="B233" r:id="rId217" display="Convert a normal BST into a Balanced BST"/>
-    <hyperlink ref="B234" r:id="rId218" display="Merge two BST [ V.V.V&gt;IMP ]"/>
-    <hyperlink ref="B235" r:id="rId219" display="Find Kth largest element in a BST"/>
-    <hyperlink ref="B236" r:id="rId220" display="Find Kth smallest element in a BST"/>
-    <hyperlink ref="B237" r:id="rId221" display="Count pairs from 2 BST whose sum is equal to given value &quot;X&quot;"/>
-    <hyperlink ref="B238" r:id="rId222" display="Find the median of BST in O(n) time and O(1) space"/>
-    <hyperlink ref="B239" r:id="rId223" display="Count BST ndoes that lie in a given range"/>
-    <hyperlink ref="B240" r:id="rId224" display="Replace every element with the least greater element on its right"/>
-    <hyperlink ref="B241" r:id="rId225" display="Given &quot;n&quot; appointments, find the conflicting appointments"/>
-    <hyperlink ref="B242" r:id="rId226" display="Check preorder is valid or not"/>
-    <hyperlink ref="B243" r:id="rId227" display="Check whether BST contains Dead end"/>
-    <hyperlink ref="B244" r:id="rId228" display="Largest BST in a Binary Tree [ V.V.V.V.V IMP ]"/>
-    <hyperlink ref="B245" r:id="rId229" display="Flatten BST to sorted list"/>
-    <hyperlink ref="B248" r:id="rId230" display="Activity Selection Problem"/>
-    <hyperlink ref="B249" r:id="rId231" display="Job SequencingProblem"/>
-    <hyperlink ref="B250" r:id="rId232" display="Huffman Coding"/>
-    <hyperlink ref="B251" r:id="rId233" display="Water Connection Problem"/>
-    <hyperlink ref="B252" r:id="rId234" display="Fractional Knapsack Problem"/>
-    <hyperlink ref="B253" r:id="rId235" display="Greedy Algorithm to find Minimum number of Coins"/>
-    <hyperlink ref="B254" r:id="rId236" display="Maximum trains for which stoppage can be provided"/>
-    <hyperlink ref="B255" r:id="rId237" display="Minimum Platforms Problem"/>
-    <hyperlink ref="B256" r:id="rId238" display="Buy Maximum Stocks if i stocks can be bought on i-th day"/>
-    <hyperlink ref="B257" r:id="rId239" display="Find the minimum and maximum amount to buy all N candies"/>
-    <hyperlink ref="B258" r:id="rId240" display="Minimize Cash Flow among a given set of friends who have borrowed money from each other"/>
-    <hyperlink ref="B259" r:id="rId241" display="Minimum Cost to cut a board into squares"/>
-    <hyperlink ref="B260" r:id="rId242" display="Check if it is possible to survive on Island"/>
-    <hyperlink ref="B261" r:id="rId243" display="Find maximum meetings in one room"/>
-    <hyperlink ref="B262" r:id="rId244" display="Maximum product subset of an array"/>
-    <hyperlink ref="B263" r:id="rId245" display="Maximize array sum after K negations"/>
-    <hyperlink ref="B264" r:id="rId246" display="Maximize the sum of arr[i]*i"/>
-    <hyperlink ref="B265" r:id="rId247" display="Maximum sum of absolute difference of an array"/>
-    <hyperlink ref="B266" r:id="rId248" display="Maximize sum of consecutive differences in a circular array"/>
-    <hyperlink ref="B267" r:id="rId249" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." display="Minimum sum of absolute difference of pairs of two arrays"/>
-    <hyperlink ref="B268" r:id="rId250" display="Program for Shortest Job First (or SJF) CPU Scheduling"/>
-    <hyperlink ref="B269" r:id="rId251" display="Program for Least Recently Used (LRU) Page Replacement algorithm"/>
-    <hyperlink ref="B270" r:id="rId252" display="Smallest subset with sum greater than all other elements"/>
-    <hyperlink ref="B271" r:id="rId253" display="Chocolate Distribution Problem"/>
-    <hyperlink ref="B272" r:id="rId254" display="DEFKIN -Defense of a Kingdom"/>
-    <hyperlink ref="B273" r:id="rId255" display="DIEHARD -DIE HARD"/>
-    <hyperlink ref="B274" r:id="rId256" display="GERGOVIA -Wine trading in Gergovia"/>
-    <hyperlink ref="B275" r:id="rId257" display="Picking Up Chicks"/>
-    <hyperlink ref="B276" r:id="rId258" display="CHOCOLA –Chocolate"/>
-    <hyperlink ref="B277" r:id="rId259" display="ARRANGE -Arranging Amplifiers"/>
-    <hyperlink ref="B278" r:id="rId260" display="K Centers Problem"/>
-    <hyperlink ref="B279" r:id="rId261" display="Minimum Cost of ropes"/>
-    <hyperlink ref="B280" r:id="rId262" display="Find smallest number with given number of digits and sum of digits"/>
-    <hyperlink ref="B281" r:id="rId263" display="Rearrange characters in a string such that no two adjacent are same"/>
-    <hyperlink ref="B282" r:id="rId264" display="Find maximum sum possible equal sum of three stacks"/>
-    <hyperlink ref="B285" r:id="rId265" display="Rat in a maze Problem"/>
-    <hyperlink ref="B286" r:id="rId266" display="Printing all solutions in N-Queen Problem"/>
-    <hyperlink ref="B287" r:id="rId267" display="Word Break Problem using Backtracking"/>
-    <hyperlink ref="B288" r:id="rId268" display="Remove Invalid Parentheses"/>
-    <hyperlink ref="B289" r:id="rId269" display="Sudoku Solver"/>
-    <hyperlink ref="B290" r:id="rId270" display="m Coloring Problem"/>
-    <hyperlink ref="B291" r:id="rId271" display="Print all palindromic partitions of a string"/>
-    <hyperlink ref="B292" r:id="rId272" display="Subset Sum Problem"/>
-    <hyperlink ref="B293" r:id="rId273" display="The Knight’s tour problem"/>
-    <hyperlink ref="B294" r:id="rId274" display="Tug of War"/>
-    <hyperlink ref="B295" r:id="rId275" display="Find shortest safe route in a path with landmines"/>
-    <hyperlink ref="B296" r:id="rId276" display="Combinational Sum"/>
-    <hyperlink ref="B297" r:id="rId277" display="Find Maximum number possible by doing at-most K swaps"/>
-    <hyperlink ref="B298" r:id="rId278" display="Print all permutations of a string "/>
-    <hyperlink ref="B299" r:id="rId279" display="Find if there is a path of more than k length from a source"/>
-    <hyperlink ref="B300" r:id="rId280" display="Longest Possible Route in a Matrix with Hurdles"/>
-    <hyperlink ref="B301" r:id="rId281" display="Print all possible paths from top left to bottom right of a mXn matrix"/>
-    <hyperlink ref="B302" r:id="rId282" display="Partition of a set intoK subsets with equal sum"/>
-    <hyperlink ref="B303" r:id="rId283" display="Find the K-th Permutation Sequence of first N natural numbers"/>
-    <hyperlink ref="B306" r:id="rId284" display=" Implement Stack from Scratch"/>
-    <hyperlink ref="B307" r:id="rId285" display=" Implement Queue from Scratch"/>
-    <hyperlink ref="B308" r:id="rId286" display="Implement 2 stack in an array"/>
-    <hyperlink ref="B309" r:id="rId287" display="find the middle element of a stack"/>
-    <hyperlink ref="B310" r:id="rId288" display="Implement &quot;N&quot; stacks in an Array"/>
-    <hyperlink ref="B311" r:id="rId289" display="Check the expression has valid or Balanced parenthesis or not."/>
-    <hyperlink ref="B312" r:id="rId290" display="Reverse a String using Stack"/>
-    <hyperlink ref="B313" r:id="rId291" display="Design a Stack that supports getMin() in O(1) time and O(1) extra space."/>
-    <hyperlink ref="B314" r:id="rId292" display="Find the next Greater element"/>
-    <hyperlink ref="B315" r:id="rId293" display="The celebrity Problem"/>
-    <hyperlink ref="B316" r:id="rId294" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." display="Arithmetic Expression evaluation"/>
-    <hyperlink ref="B317" r:id="rId295" display="Evaluation of Postfix expression"/>
-    <hyperlink ref="B318" r:id="rId296" display="Implement a method to insert an element at its bottom without using any other data structure."/>
-    <hyperlink ref="B319" r:id="rId297" display="Reverse a stack using recursion"/>
-    <hyperlink ref="B320" r:id="rId298" display="Sort a Stack using recursion"/>
-    <hyperlink ref="B321" r:id="rId299" display="Merge Overlapping Intervals"/>
-    <hyperlink ref="B322" r:id="rId300" display="Largest rectangular Area in Histogram"/>
-    <hyperlink ref="B323" r:id="rId301" display="Length of the Longest Valid Substring"/>
-    <hyperlink ref="B324" r:id="rId302" display="Expression contains redundant bracket or not"/>
-    <hyperlink ref="B325" r:id="rId303" display="Implement Stack using Queue"/>
-    <hyperlink ref="B326" r:id="rId304" display="Implement Stack using Deque"/>
-    <hyperlink ref="B327" r:id="rId305" display="Stack Permutations (Check if an array is stack permutation of other)"/>
-    <hyperlink ref="B328" r:id="rId306" display="Implement Queue using Stack  "/>
-    <hyperlink ref="B329" r:id="rId307" display="Implement &quot;n&quot; queue in an array"/>
-    <hyperlink ref="B330" r:id="rId308" display="Implement a Circular queue"/>
-    <hyperlink ref="B331" r:id="rId309" display="LRU Cache Implementationa"/>
-    <hyperlink ref="B332" r:id="rId310" display="Reverse a Queue using recursion"/>
-    <hyperlink ref="B333" r:id="rId311" display="Reverse the first “K” elements of a queue"/>
-    <hyperlink ref="B334" r:id="rId312" display="Interleave the first half of the queue with second half"/>
-    <hyperlink ref="B335" r:id="rId313" display="Find the first circular tour that visits all Petrol Pumps"/>
-    <hyperlink ref="B336" r:id="rId314" display="Minimum time required to rot all oranges"/>
-    <hyperlink ref="B337" r:id="rId315" display="Distance of nearest cell having 1 in a binary matrix"/>
-    <hyperlink ref="B338" r:id="rId316" display="First negative integer in every window of size “k”"/>
-    <hyperlink ref="B339" r:id="rId317" display="Check if all levels of two trees are anagrams or not."/>
-    <hyperlink ref="B340" r:id="rId318" display="Sum of minimum and maximum elements of all subarrays of size “k”."/>
-    <hyperlink ref="B341" r:id="rId319" display="Minimum sum of squares of character counts in a given string after removing “k” characters."/>
-    <hyperlink ref="B342" r:id="rId320" display="Queue based approach or first non-repeating character in a stream."/>
-    <hyperlink ref="B343" r:id="rId321" display="Next Smaller Element"/>
-    <hyperlink ref="B346" r:id="rId322" display="Implement a Maxheap/MinHeap using arrays and recursion."/>
-    <hyperlink ref="B347" r:id="rId323" display="Sort an Array using heap. (HeapSort)"/>
-    <hyperlink ref="B348" r:id="rId324" display="Maximum of all subarrays of size k."/>
-    <hyperlink ref="B349" r:id="rId325" display="“k” largest element in an array"/>
-    <hyperlink ref="B350" r:id="rId326" display="Kth smallest and largest element in an unsorted array"/>
-    <hyperlink ref="B351" r:id="rId327" display="Merge “K” sorted arrays. [ IMP ]"/>
-    <hyperlink ref="B352" r:id="rId328" display="Merge 2 Binary Max Heaps"/>
-    <hyperlink ref="B353" r:id="rId329" display="Kth largest sum continuous subarrays"/>
-    <hyperlink ref="B354" r:id="rId330" display="Leetcode- reorganize strings"/>
-    <hyperlink ref="B355" r:id="rId331" display="Merge “K” Sorted Linked Lists [V.IMP]"/>
-    <hyperlink ref="B356" r:id="rId332" display="Smallest range in “K” Lists"/>
-    <hyperlink ref="B357" r:id="rId333" display="Median in a stream of Integers"/>
-    <hyperlink ref="B358" r:id="rId334" display="Check if a Binary Tree is Heap"/>
-    <hyperlink ref="B359" r:id="rId335" display="Connect “n” ropes with minimum cost"/>
-    <hyperlink ref="B360" r:id="rId336" display="Convert BST to Min Heap"/>
-    <hyperlink ref="B361" r:id="rId337" display="Convert min heap to max heap"/>
-    <hyperlink ref="B362" r:id="rId338" display="Rearrange characters in a string such that no two adjacent are same."/>
-    <hyperlink ref="B363" r:id="rId339" display="Minimum sum of two numbers formed from digits of an array"/>
-    <hyperlink ref="B366" r:id="rId340" display="Create a Graph, print it"/>
-    <hyperlink ref="B367" r:id="rId341" display="Implement BFS algorithm "/>
-    <hyperlink ref="B368" r:id="rId342" display="Implement DFS Algo "/>
-    <hyperlink ref="B369" r:id="rId343" display="Detect Cycle in Directed Graph using BFS/DFS Algo "/>
-    <hyperlink ref="B370" r:id="rId344" display="Detect Cycle in UnDirected Graph using BFS/DFS Algo "/>
-    <hyperlink ref="B371" r:id="rId345" display="Search in a Maze"/>
-    <hyperlink ref="B372" r:id="rId346" display="Minimum Step by Knight"/>
-    <hyperlink ref="B373" r:id="rId347" display="flood fill algo"/>
-    <hyperlink ref="B374" r:id="rId348" display="Clone a graph"/>
-    <hyperlink ref="B375" r:id="rId349" display="Making wired Connections"/>
-    <hyperlink ref="B376" r:id="rId350" display="word Ladder "/>
-    <hyperlink ref="B377" r:id="rId351" display="Dijkstra algo"/>
-    <hyperlink ref="B378" r:id="rId352" display="Implement Topological Sort "/>
-    <hyperlink ref="B379" r:id="rId353" display="Minimum time taken by each job to be completed given by a Directed Acyclic Graph"/>
-    <hyperlink ref="B380" r:id="rId354" display="Find whether it is possible to finish all tasks or not from given dependencies"/>
-    <hyperlink ref="B381" r:id="rId355" display="Find the no. of Isalnds"/>
-    <hyperlink ref="B382" r:id="rId356" display="Given a sorted Dictionary of an Alien Language, find order of characters"/>
-    <hyperlink ref="B383" r:id="rId357" display="Implement Kruksal’sAlgorithm"/>
-    <hyperlink ref="B384" r:id="rId358" display="Implement Prim’s Algorithm"/>
-    <hyperlink ref="B385" r:id="rId359" display="Total no. of Spanning tree in a graph"/>
-    <hyperlink ref="B386" r:id="rId360" display="Implement Bellman Ford Algorithm"/>
-    <hyperlink ref="B387" r:id="rId361" display="Implement Floyd warshallAlgorithm"/>
-    <hyperlink ref="B388" r:id="rId362" display="Travelling Salesman Problem"/>
-    <hyperlink ref="B389" r:id="rId363" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." display="Graph ColouringProblem"/>
-    <hyperlink ref="B390" r:id="rId364" display="Snake and Ladders Problem"/>
-    <hyperlink ref="B391" r:id="rId365" display="Find bridge in a graph"/>
-    <hyperlink ref="B392" r:id="rId366" display="Count Strongly connected Components(Kosaraju Algo)"/>
-    <hyperlink ref="B393" r:id="rId367" display="Check whether a graph is Bipartite or Not"/>
-    <hyperlink ref="B394" r:id="rId368" display="Detect Negative cycle in a graph"/>
-    <hyperlink ref="B395" r:id="rId369" display="Longest path in a Directed Acyclic Graph"/>
-    <hyperlink ref="B396" r:id="rId370" display="Journey to the Moon"/>
-    <hyperlink ref="B397" r:id="rId371" display="Cheapest Flights Within K Stops"/>
-    <hyperlink ref="B398" r:id="rId372" display="Oliver and the Game"/>
-    <hyperlink ref="B399" r:id="rId373" display="Water Jug problem using BFS"/>
-    <hyperlink ref="B400" r:id="rId374" display="Water Jug problem using BFS"/>
-    <hyperlink ref="B401" r:id="rId375" display="Find if there is a path of more thank length from a source"/>
-    <hyperlink ref="B402" r:id="rId376" display="M-ColouringProblem"/>
-    <hyperlink ref="B403" r:id="rId377" display="Minimum edges to reverse o make path from source to destination"/>
-    <hyperlink ref="B404" r:id="rId378" display="Paths to travel each nodes using each edge(Seven Bridges)"/>
-    <hyperlink ref="B405" r:id="rId379" display="Vertex Cover Problem"/>
-    <hyperlink ref="B406" r:id="rId380" display="Chinese Postman or Route Inspection"/>
-    <hyperlink ref="B407" r:id="rId381" display="Number of Triangles in a Directed and Undirected Graph"/>
-    <hyperlink ref="B408" r:id="rId382" display="Minimise the cashflow among a given set of friends who have borrowed money from each other"/>
-    <hyperlink ref="B409" r:id="rId383" display="Two Clique Problem"/>
-    <hyperlink ref="B412" r:id="rId384" display="Construct a trie from scratch"/>
-    <hyperlink ref="B413" r:id="rId385" display="Find shortest unique prefix for every word in a given list"/>
-    <hyperlink ref="B414" r:id="rId386" display="Word Break Problem | (Trie solution)"/>
-    <hyperlink ref="B415" r:id="rId387" display="Given a sequence of words, print all anagrams together"/>
-    <hyperlink ref="B416" r:id="rId388" display="Implement a Phone Directory"/>
-    <hyperlink ref="B417" r:id="rId389" display="Print unique rows in a given boolean matrix"/>
-    <hyperlink ref="B420" r:id="rId390" display="Coin ChangeProblem"/>
-    <hyperlink ref="B421" r:id="rId391" display="Knapsack Problem"/>
-    <hyperlink ref="B422" r:id="rId392" display="Binomial CoefficientProblem"/>
-    <hyperlink ref="B423" r:id="rId393" display="Permutation CoefficientProblem"/>
-    <hyperlink ref="B424" r:id="rId394" display="Program for nth Catalan Number"/>
-    <hyperlink ref="B425" r:id="rId395" display="Matrix Chain Multiplication "/>
-    <hyperlink ref="B426" r:id="rId396" display="Edit Distance"/>
-    <hyperlink ref="B427" r:id="rId397" display="Subset Sum Problem"/>
-    <hyperlink ref="B428" r:id="rId398" display="Friends Pairing Problem"/>
-    <hyperlink ref="B429" r:id="rId399" display="Gold Mine Problem"/>
-    <hyperlink ref="B430" r:id="rId400" display="Assembly Line SchedulingProblem"/>
-    <hyperlink ref="B431" r:id="rId401" display="Painting the Fenceproblem"/>
-    <hyperlink ref="B432" r:id="rId402" display="Maximize The Cut Segments"/>
-    <hyperlink ref="B433" r:id="rId403" display="Longest Common Subsequence"/>
-    <hyperlink ref="B434" r:id="rId404" display="Longest Repeated Subsequence"/>
-    <hyperlink ref="B435" r:id="rId405" display="Longest Increasing Subsequence"/>
-    <hyperlink ref="B436" r:id="rId406" display="Space Optimized Solution of LCS"/>
-    <hyperlink ref="B437" r:id="rId407" display="LCS (Longest Common Subsequence) of three strings"/>
-    <hyperlink ref="B438" r:id="rId408" display="Maximum Sum Increasing Subsequence"/>
-    <hyperlink ref="B439" r:id="rId409" display="Count all subsequences having product less than K"/>
-    <hyperlink ref="B440" r:id="rId410" display="Longest subsequence such that difference between adjacent is one"/>
-    <hyperlink ref="B441" r:id="rId411" display="Maximum subsequence sum such that no three are consecutive"/>
-    <hyperlink ref="B442" r:id="rId412" display="Egg Dropping Problem"/>
-    <hyperlink ref="B443" r:id="rId413" display="Maximum Length Chain of Pairs"/>
-    <hyperlink ref="B444" r:id="rId414" display="Maximum size square sub-matrix with all 1s"/>
-    <hyperlink ref="B445" r:id="rId415" display="Maximum sum of pairs with specific difference"/>
-    <hyperlink ref="B446" r:id="rId416" display="Min Cost PathProblem"/>
-    <hyperlink ref="B447" r:id="rId417" display="Maximum difference of zeros and ones in binary string"/>
-    <hyperlink ref="B448" r:id="rId418" display="Minimum number of jumps to reach end"/>
-    <hyperlink ref="B449" r:id="rId419" display="Minimum cost to fill given weight in a bag"/>
-    <hyperlink ref="B450" r:id="rId420" display="Minimum removals from array to make max –min &lt;= K"/>
-    <hyperlink ref="B451" r:id="rId421" display="Longest Common Substring"/>
-    <hyperlink ref="B452" r:id="rId422" display="Count number of ways to reacha given score in a game"/>
-    <hyperlink ref="B453" r:id="rId423" display="Count Balanced Binary Trees of Height h"/>
-    <hyperlink ref="B454" r:id="rId424" display="LargestSum Contiguous Subarray [V&gt;V&gt;V&gt;V IMP ]"/>
-    <hyperlink ref="B455" r:id="rId425" display="Smallest sum contiguous subarray"/>
-    <hyperlink ref="B456" r:id="rId426" display="Unbounded Knapsack (Repetition of items allowed)"/>
-    <hyperlink ref="B457" r:id="rId427" display="Word Break Problem"/>
-    <hyperlink ref="B458" r:id="rId428" display="Largest Independent Set Problem"/>
-    <hyperlink ref="B459" r:id="rId429" display="Partition problem"/>
-    <hyperlink ref="B460" r:id="rId430" display="Longest Palindromic Subsequence"/>
-    <hyperlink ref="B461" r:id="rId431" display="Count All Palindromic Subsequence in a given String"/>
-    <hyperlink ref="B462" r:id="rId432" display="Longest Palindromic Substring"/>
-    <hyperlink ref="B463" r:id="rId433" display="Longest alternating subsequence"/>
-    <hyperlink ref="B464" r:id="rId434" display="Weighted Job Scheduling"/>
-    <hyperlink ref="B465" r:id="rId435" display="Coin game winner where every player has three choices"/>
-    <hyperlink ref="B466" r:id="rId436" display="Count Derangements (Permutation such that no element appears in its original position) [ IMPORTANT ]"/>
-    <hyperlink ref="B467" r:id="rId437" display="Maximum profit by buying and selling a share at most twice [ IMP ]"/>
-    <hyperlink ref="B468" r:id="rId438" display="Optimal Strategy for a Game"/>
-    <hyperlink ref="B469" r:id="rId439" display="Optimal Binary Search Tree"/>
-    <hyperlink ref="B470" r:id="rId440" display="Palindrome PartitioningProblem"/>
-    <hyperlink ref="B471" r:id="rId441" display="Word Wrap Problem"/>
-    <hyperlink ref="B472" r:id="rId442" display="Mobile Numeric Keypad Problem [ IMP ]"/>
-    <hyperlink ref="B473" r:id="rId443" display="Boolean Parenthesization Problem"/>
-    <hyperlink ref="B474" r:id="rId444" display="Largest rectangular sub-matrix whose sum is 0"/>
-    <hyperlink ref="B475" r:id="rId445" display="Largest area rectangular sub-matrix with equal number of 1’s and 0’s [ IMP ]"/>
-    <hyperlink ref="B476" r:id="rId446" display="Maximum sum rectangle in a 2D matrix"/>
-    <hyperlink ref="B477" r:id="rId447" display="Maximum profit by buying and selling a share at most k times"/>
-    <hyperlink ref="B478" r:id="rId448" display="Find if a string is interleaved of two other strings"/>
-    <hyperlink ref="B479" r:id="rId449" display="Maximum Length of Pair Chain"/>
-    <hyperlink ref="B482" r:id="rId450" display="Count set bits in an integer"/>
-    <hyperlink ref="B483" r:id="rId451" display="Find the two non-repeating elements in an array of repeating elements"/>
-    <hyperlink ref="B484" r:id="rId452" display="Count number of bits to be flipped to convert A to B"/>
-    <hyperlink ref="B485" r:id="rId453" display="Count total set bits in all numbers from 1 to n"/>
-    <hyperlink ref="B486" r:id="rId454" display="Program to find whether a no is power of two"/>
-    <hyperlink ref="B487" r:id="rId455" display="Find position of the only set bit"/>
-    <hyperlink ref="B488" r:id="rId456" display="Copy set bits in a range"/>
-    <hyperlink ref="B489" r:id="rId457" display="Divide two integers without using multiplication, division and mod operator"/>
-    <hyperlink ref="B490" r:id="rId458" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." display="Calculate square of a number without using *, / and pow()"/>
-    <hyperlink ref="B491" r:id="rId459" display="Power Set"/>
+    <hyperlink ref="B16" r:id="rId10" display="Reverse the array"/>
+    <hyperlink ref="D16" r:id="rId11" display="https://youtu.be/KKWc1WFG_pQ"/>
+    <hyperlink ref="B17" r:id="rId12" display="Find longest coinsecutive subsequence"/>
+    <hyperlink ref="D17" r:id="rId13" display="https://youtu.be/i72zMFMhha8"/>
+    <hyperlink ref="B18" r:id="rId14" display="Find the maximum and minimum element in an array"/>
+    <hyperlink ref="B19" r:id="rId15" display="Find the &quot;Kth&quot; max and min element of an array "/>
+    <hyperlink ref="B20" r:id="rId16" display="Given an array which consists of only 0, 1 and 2. Sort the array without using any sorting algo"/>
+    <hyperlink ref="B21" r:id="rId17" display="Move all the negative elements to one side of the array "/>
+    <hyperlink ref="B22" r:id="rId18" display="Find the Union and Intersection of the two sorted arrays."/>
+    <hyperlink ref="B23" r:id="rId19" display="Write a program to cyclically rotate an array by one."/>
+    <hyperlink ref="B24" r:id="rId20" display="Minimise the maximum difference between heights [V.IMP]"/>
+    <hyperlink ref="B25" r:id="rId21" display="Minimum no. of Jumps to reach end of an array"/>
+    <hyperlink ref="B26" r:id="rId22" display="find duplicate in an array of N+1 Integers"/>
+    <hyperlink ref="B27" r:id="rId23" display="Merge 2 sorted arrays without using Extra space."/>
+    <hyperlink ref="B28" r:id="rId24" display="Merge Intervals"/>
+    <hyperlink ref="B29" r:id="rId25" display="Next Permutation"/>
+    <hyperlink ref="B30" r:id="rId26" display="Count Inversion"/>
+    <hyperlink ref="B31" r:id="rId27" display="Best time to buy and Sell stock"/>
+    <hyperlink ref="B32" r:id="rId28" display="find all pairs on integer array whose sum is equal to given number"/>
+    <hyperlink ref="B33" r:id="rId29" display="find common elements In 3 sorted arrays"/>
+    <hyperlink ref="B34" r:id="rId30" display="Rearrange the array in alternating positive and negative items with O(1) extra space"/>
+    <hyperlink ref="B35" r:id="rId31" display="Find if there is any subarray with sum equal to 0"/>
+    <hyperlink ref="B36" r:id="rId32" display="Find factorial of a large number"/>
+    <hyperlink ref="B37" r:id="rId33" display="find maximum product subarray "/>
+    <hyperlink ref="B38" r:id="rId34" display="Given an array of size n and a number k, fin all elements that appear more than &quot; n/k &quot; times."/>
+    <hyperlink ref="B39" r:id="rId35" display="Maximum profit by buying and selling a share atmost twice"/>
+    <hyperlink ref="B40" r:id="rId36" display="Find whether an array is a subset of another array"/>
+    <hyperlink ref="B41" r:id="rId37" display="Find the triplet that sum to a given value"/>
+    <hyperlink ref="B42" r:id="rId38" display="Trapping Rain water problem"/>
+    <hyperlink ref="B43" r:id="rId39" display="Chocolate Distribution problem"/>
+    <hyperlink ref="B44" r:id="rId40" display="Smallest Subarray with sum greater than a given value"/>
+    <hyperlink ref="B45" r:id="rId41" display="Three way partitioning of an array around a given value"/>
+    <hyperlink ref="B46" r:id="rId42" display="Minimum swaps required bring elements less equal K together"/>
+    <hyperlink ref="B47" r:id="rId43" display="Minimum no. of operations required to make an array palindrome"/>
+    <hyperlink ref="B48" r:id="rId44" display="Median of 2 sorted arrays of equal size"/>
+    <hyperlink ref="B49" r:id="rId45" display="Median of 2 sorted arrays of different size"/>
+    <hyperlink ref="B52" r:id="rId46" display="Kth smallest element in a row-cpumn wise sorted matrix"/>
+    <hyperlink ref="D52" r:id="rId47" display="https://youtu.be/rLcM3aMFzy8?t=1170"/>
+    <hyperlink ref="B53" r:id="rId48" display="Spiral traversal on a Matrix"/>
+    <hyperlink ref="B54" r:id="rId49" display="Search an element in a matriix"/>
+    <hyperlink ref="B55" r:id="rId50" display="Find median in a row wise sorted matrix"/>
+    <hyperlink ref="B56" r:id="rId51" display="Find row with maximum no. of 1's"/>
+    <hyperlink ref="B57" r:id="rId52" display="Print elements in sorted order using row-column wise sorted matrix"/>
+    <hyperlink ref="B58" r:id="rId53" display="Maximum size rectangle"/>
+    <hyperlink ref="B59" r:id="rId54" display="Find a specific pair in matrix"/>
+    <hyperlink ref="B60" r:id="rId55" display="Rotate matrix by 90 degrees"/>
+    <hyperlink ref="B61" r:id="rId56" display="Common elements in all rows of a given matrix"/>
+    <hyperlink ref="B64" r:id="rId57" display="Reverse a String"/>
+    <hyperlink ref="D64" r:id="rId58" display="https://youtu.be/KKWc1WFG_pQ"/>
+    <hyperlink ref="B65" r:id="rId59" display="Given a sequence of words, print all anagrams together"/>
+    <hyperlink ref="D65" r:id="rId60" display="https://youtu.be/NVIm5_TIqUs"/>
+    <hyperlink ref="B66" r:id="rId61" display="Check whether a String is Palindrome or not"/>
+    <hyperlink ref="B67" r:id="rId62" display="Find Duplicate characters in a string"/>
+    <hyperlink ref="B69" r:id="rId63" display="Write a Code to check whether one string is a rotation of another"/>
+    <hyperlink ref="B70" r:id="rId64" display="Write a Program to check whether a string is a valid shuffle of two strings or not"/>
+    <hyperlink ref="B71" r:id="rId65" display="Count and Say problem"/>
+    <hyperlink ref="B72" r:id="rId66" display="Write a program to find the longest Palindrome in a string.[ Longest palindromic Substring]"/>
+    <hyperlink ref="B73" r:id="rId67" display="Find Longest Recurring Subsequence in String"/>
+    <hyperlink ref="B74" r:id="rId68" display="Print all Subsequences of a string."/>
+    <hyperlink ref="B75" r:id="rId69" display="Print all the permutations of the given string"/>
+    <hyperlink ref="B76" r:id="rId70" display="Split the Binary string into two substring with equal 0’s and 1’s"/>
+    <hyperlink ref="B77" r:id="rId71" display="Word Wrap Problem [VERY IMP]."/>
+    <hyperlink ref="B78" r:id="rId72" display="EDIT Distance [Very Imp]"/>
+    <hyperlink ref="B79" r:id="rId73" display="Find next greater number with same set of digits. [Very Very IMP]"/>
+    <hyperlink ref="B80" r:id="rId74" display="Balanced Parenthesis problem.[Imp]"/>
+    <hyperlink ref="B81" r:id="rId75" display="Word break Problem[ Very Imp]"/>
+    <hyperlink ref="B82" r:id="rId76" display="Rabin Karp Algo"/>
+    <hyperlink ref="B83" r:id="rId77" display="KMP Algo"/>
+    <hyperlink ref="B84" r:id="rId78" display="Convert a Sentence into its equivalent mobile numeric keypad sequence."/>
+    <hyperlink ref="B85" r:id="rId79" display="Minimum number of bracket reversals needed to make an expression balanced."/>
+    <hyperlink ref="B86" r:id="rId80" display="Count All Palindromic Subsequence in a given String."/>
+    <hyperlink ref="B87" r:id="rId81" display="Count of number of given string in 2D character array"/>
+    <hyperlink ref="B88" r:id="rId82" display="Search a Word in a 2D Grid of characters."/>
+    <hyperlink ref="B89" r:id="rId83" display="Boyer Moore Algorithm for Pattern Searching."/>
+    <hyperlink ref="B90" r:id="rId84" display="Converting Roman Numerals to Decimal"/>
+    <hyperlink ref="B91" r:id="rId85" display="Longest Common Prefix"/>
+    <hyperlink ref="B92" r:id="rId86" display="Number of flips to make binary string alternate"/>
+    <hyperlink ref="B93" r:id="rId87" display="Find the first repeated word in string."/>
+    <hyperlink ref="B94" r:id="rId88" display="Minimum number of swaps for bracket balancing."/>
+    <hyperlink ref="B95" r:id="rId89" display="Find the longest common subsequence between two strings."/>
+    <hyperlink ref="B96" r:id="rId90" display="Program to generate all possible valid IP addresses from given  string."/>
+    <hyperlink ref="B97" r:id="rId91" display="Write a program tofind the smallest window that contains all characters of string itself."/>
+    <hyperlink ref="B98" r:id="rId92" display="Rearrange characters in a string such that no two adjacent are same"/>
+    <hyperlink ref="B99" r:id="rId93" display="Minimum characters to be added at front to make string palindrome"/>
+    <hyperlink ref="B100" r:id="rId94" display="Find the smallest window in a string containing all characters of another string"/>
+    <hyperlink ref="B101" r:id="rId95" display="Recursively remove all adjacent duplicates"/>
+    <hyperlink ref="B102" r:id="rId96" display="String matching where one string contains wildcard characters"/>
+    <hyperlink ref="B103" r:id="rId97" display="Function to find Number of customers who could not get a computer"/>
+    <hyperlink ref="B104" r:id="rId98" display="Transform One String to Another using Minimum Number of Given Operation"/>
+    <hyperlink ref="B105" r:id="rId99" display="Check if two given strings are isomorphic to each other"/>
+    <hyperlink ref="B106" r:id="rId100" display="Recursively print all sentences that can be formed from list of word lists"/>
+    <hyperlink ref="B109" r:id="rId101" display="Find first and last positions of an element in a sorted array"/>
+    <hyperlink ref="B110" r:id="rId102" display="Find a Fixed Point (Value equal to index) in a given array"/>
+    <hyperlink ref="B111" r:id="rId103" display="Search in a rotated sorted array"/>
+    <hyperlink ref="B112" r:id="rId104" display="square root of an integer"/>
+    <hyperlink ref="B113" r:id="rId105" display="Maximum and minimum of an array using minimum number of comparisons"/>
+    <hyperlink ref="B114" r:id="rId106" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." display="Optimum location of point to minimize total distance"/>
+    <hyperlink ref="B115" r:id="rId107" display="Find the repeating and the missing"/>
+    <hyperlink ref="B116" r:id="rId108" display="find majority element"/>
+    <hyperlink ref="B117" r:id="rId109" display="Searching in an array where adjacent differ by at most k"/>
+    <hyperlink ref="B118" r:id="rId110" display="find a pair with a given difference"/>
+    <hyperlink ref="B119" r:id="rId111" display="find four elements that sum to a given value"/>
+    <hyperlink ref="B120" r:id="rId112" display="maximum sum such that no 2 elements are adjacent"/>
+    <hyperlink ref="B121" r:id="rId113" display="Count triplet with sum smaller than a given value"/>
+    <hyperlink ref="B122" r:id="rId114" display="merge 2 sorted arrays"/>
+    <hyperlink ref="B123" r:id="rId115" display="print all subarrays with 0 sum"/>
+    <hyperlink ref="B124" r:id="rId116" display="Product array Puzzle"/>
+    <hyperlink ref="B125" r:id="rId117" display="Sort array according to count of set bits"/>
+    <hyperlink ref="B126" r:id="rId118" display="minimum no. of swaps required to sort the array"/>
+    <hyperlink ref="B127" r:id="rId119" display="Bishu and Soldiers"/>
+    <hyperlink ref="B128" r:id="rId120" display="Rasta and Kheshtak"/>
+    <hyperlink ref="B129" r:id="rId121" display="Kth smallest number again"/>
+    <hyperlink ref="B130" r:id="rId122" display="Find pivot element in a sorted array"/>
+    <hyperlink ref="B131" r:id="rId123" display="K-th Element of Two Sorted Arrays"/>
+    <hyperlink ref="B132" r:id="rId124" display="Aggressive cows"/>
+    <hyperlink ref="B133" r:id="rId125" display="Book Allocation Problem"/>
+    <hyperlink ref="B134" r:id="rId126" display="EKOSPOJ:"/>
+    <hyperlink ref="B135" r:id="rId127" display="Job Scheduling Algo"/>
+    <hyperlink ref="B136" r:id="rId128" display="Missing Number in AP"/>
+    <hyperlink ref="B137" r:id="rId129" display="Smallest number with atleastn trailing zeroes infactorial"/>
+    <hyperlink ref="B138" r:id="rId130" display="Painters Partition Problem:"/>
+    <hyperlink ref="B139" r:id="rId131" display="ROTI-Prata SPOJ"/>
+    <hyperlink ref="B140" r:id="rId132" display="DoubleHelix SPOJ"/>
+    <hyperlink ref="B141" r:id="rId133" display="Subset Sums"/>
+    <hyperlink ref="B142" r:id="rId134" display="Findthe inversion count"/>
+    <hyperlink ref="B143" r:id="rId135" display="Implement Merge-sort in-place"/>
+    <hyperlink ref="B144" r:id="rId136" display="Partitioning and Sorting Arrays with Many Repeated Entries"/>
+    <hyperlink ref="B147" r:id="rId137" display="Write a Program to reverse the Linked List. (Both Iterative and recursive)"/>
+    <hyperlink ref="B148" r:id="rId138" display="Reverse a Linked List in group of Given Size. [Very Imp]"/>
+    <hyperlink ref="B149" r:id="rId139" display="Write a program to Detect loop in a linked list."/>
+    <hyperlink ref="B150" r:id="rId140" display="Write a program to Delete loop in a linked list."/>
+    <hyperlink ref="B151" r:id="rId141" display="Find the starting point of the loop. "/>
+    <hyperlink ref="B152" r:id="rId142" display="Remove Duplicates in a sorted Linked List."/>
+    <hyperlink ref="B153" r:id="rId143" display="Remove Duplicates in a Un-sorted Linked List."/>
+    <hyperlink ref="B154" r:id="rId144" display="Write a Program to Move the last element to Front in a Linked List."/>
+    <hyperlink ref="B155" r:id="rId145" display="Add “1” to a number represented as a Linked List."/>
+    <hyperlink ref="B156" r:id="rId146" display="Add two numbers represented by linked lists."/>
+    <hyperlink ref="B157" r:id="rId147" display="Intersection of two Sorted Linked List."/>
+    <hyperlink ref="B158" r:id="rId148" display="Intersection Point of two Linked Lists."/>
+    <hyperlink ref="B159" r:id="rId149" display="Merge Sort For Linked lists.[Very Important]"/>
+    <hyperlink ref="B160" r:id="rId150" display="Quicksort for Linked Lists.[Very Important]"/>
+    <hyperlink ref="B161" r:id="rId151" display="Find the middle Element of a linked list."/>
+    <hyperlink ref="B162" r:id="rId152" display="Check if a linked list is a circular linked list."/>
+    <hyperlink ref="B163" r:id="rId153" display="Split a Circular linked list into two halves."/>
+    <hyperlink ref="B164" r:id="rId154" display="Write a Program to check whether the Singly Linked list is a palindrome or not."/>
+    <hyperlink ref="B165" r:id="rId155" display="Deletion from a Circular Linked List."/>
+    <hyperlink ref="B166" r:id="rId156" display="Reverse a Doubly Linked list."/>
+    <hyperlink ref="B167" r:id="rId157" display="Find pairs with a given sum in a DLL."/>
+    <hyperlink ref="B168" r:id="rId158" display="Count triplets in a sorted DLL whose sum is equal to given value “X”."/>
+    <hyperlink ref="B169" r:id="rId159" display="Sort a “k”sorted Doubly Linked list.[Very IMP]"/>
+    <hyperlink ref="B170" r:id="rId160" display="Rotate DoublyLinked list by N nodes."/>
+    <hyperlink ref="B171" r:id="rId161" display="Rotate a Doubly Linked list in group of Given Size.[Very IMP]"/>
+    <hyperlink ref="B174" r:id="rId162" display="Flatten a Linked List"/>
+    <hyperlink ref="B175" r:id="rId163" display="Sort a LL of 0's, 1's and 2's"/>
+    <hyperlink ref="B176" r:id="rId164" display="Clone a linked list with next and random pointer"/>
+    <hyperlink ref="B177" r:id="rId165" display="Merge K sorted Linked list"/>
+    <hyperlink ref="B178" r:id="rId166" display="Multiply 2 no. represented by LL"/>
+    <hyperlink ref="B179" r:id="rId167" display="Delete nodes which have a greater value on right side"/>
+    <hyperlink ref="B180" r:id="rId168" display="Segregate even and odd nodes in a Linked List"/>
+    <hyperlink ref="B181" r:id="rId169" display="Program for n’th node from the end of a Linked List"/>
+    <hyperlink ref="B182" r:id="rId170" display="Find the first non-repeating character from a stream of characters"/>
+    <hyperlink ref="B185" r:id="rId171" display="level order traversal"/>
+    <hyperlink ref="B186" r:id="rId172" display="Reverse Level Order traversal"/>
+    <hyperlink ref="B187" r:id="rId173" display="Height of a tree"/>
+    <hyperlink ref="B188" r:id="rId174" display="Diameter of a tree"/>
+    <hyperlink ref="B189" r:id="rId175" display="Mirror of a tree"/>
+    <hyperlink ref="B190" r:id="rId176" display="Inorder Traversal of a tree both using recursion and Iteration"/>
+    <hyperlink ref="B191" r:id="rId177" display="Preorder Traversal of a tree both using recursion and Iteration"/>
+    <hyperlink ref="B192" r:id="rId178" display="Postorder Traversal of a tree both using recursion and Iteration"/>
+    <hyperlink ref="B193" r:id="rId179" display="Left View of a tree"/>
+    <hyperlink ref="B194" r:id="rId180" display="Right View of Tree"/>
+    <hyperlink ref="B195" r:id="rId181" display="Top View of a tree"/>
+    <hyperlink ref="B196" r:id="rId182" display="Bottom View of a tree"/>
+    <hyperlink ref="B197" r:id="rId183" display="Zig-Zag traversal of a binary tree"/>
+    <hyperlink ref="B198" r:id="rId184" display="Check if a tree is balanced or not"/>
+    <hyperlink ref="B199" r:id="rId185" display="Diagnol Traversal of a Binary tree"/>
+    <hyperlink ref="B200" r:id="rId186" display="Boundary traversal of a Binary tree"/>
+    <hyperlink ref="B201" r:id="rId187" display="Construct Binary Tree from String with Bracket Representation"/>
+    <hyperlink ref="B202" r:id="rId188" display="Convert Binary tree into Doubly Linked List"/>
+    <hyperlink ref="B203" r:id="rId189" display="Convert Binary tree into Sum tree"/>
+    <hyperlink ref="B204" r:id="rId190" display="Construct Binary tree from Inorder and preorder traversal"/>
+    <hyperlink ref="B205" r:id="rId191" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." display="Find minimum swaps required to convert a Binary tree into BST"/>
+    <hyperlink ref="B206" r:id="rId192" display="Check if Binary tree is Sum tree or not"/>
+    <hyperlink ref="B207" r:id="rId193" display="Check if all leaf nodes are at same level or not"/>
+    <hyperlink ref="B208" r:id="rId194" display="Check if a Binary Tree contains duplicate subtrees of size 2 or more [ IMP ]"/>
+    <hyperlink ref="B209" r:id="rId195" display="Check if 2 trees are mirror or not"/>
+    <hyperlink ref="B210" r:id="rId196" display="Sum of Nodes on the Longest path from root to leaf node "/>
+    <hyperlink ref="B211" r:id="rId197" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." display="Check if given graph is tree or not.  [ IMP ]"/>
+    <hyperlink ref="B212" r:id="rId198" display="Find Largest subtree sum in a tree"/>
+    <hyperlink ref="B213" r:id="rId199" display="Maximum Sum of nodes in Binary tree such that no two are adjacent "/>
+    <hyperlink ref="B214" r:id="rId200" display="Print all &quot;K&quot; Sum paths in a Binary tree"/>
+    <hyperlink ref="B215" r:id="rId201" display="Find LCA in a Binary tree"/>
+    <hyperlink ref="B216" r:id="rId202" display="Find distance between 2 nodes in a Binary tree"/>
+    <hyperlink ref="B217" r:id="rId203" display="Kth Ancestor of node in a Binary tree"/>
+    <hyperlink ref="B218" r:id="rId204" display="Find all Duplicate subtrees in a Binary tree [ IMP ]"/>
+    <hyperlink ref="B219" r:id="rId205" display="Tree Isomorphism Problem"/>
+    <hyperlink ref="B222" r:id="rId206" display="Fina a value in a BST"/>
+    <hyperlink ref="B223" r:id="rId207" display="Deletion of a node in a BST"/>
+    <hyperlink ref="B224" r:id="rId208" display="Find min and max value in a BST"/>
+    <hyperlink ref="B225" r:id="rId209" display="Find inorder successor and inorder predecessor in a BST"/>
+    <hyperlink ref="B226" r:id="rId210" display="Check if a tree is a BST or not "/>
+    <hyperlink ref="B227" r:id="rId211" display="Populate Inorder successor of all nodes"/>
+    <hyperlink ref="B228" r:id="rId212" display="Find LCA  of 2 nodes in a BST"/>
+    <hyperlink ref="B229" r:id="rId213" display="Construct BST from preorder traversal"/>
+    <hyperlink ref="B230" r:id="rId214" display="Convert Binary tree into BST"/>
+    <hyperlink ref="B231" r:id="rId215" display="Convert a normal BST into a Balanced BST"/>
+    <hyperlink ref="B232" r:id="rId216" display="Merge two BST [ V.V.V&gt;IMP ]"/>
+    <hyperlink ref="B233" r:id="rId217" display="Find Kth largest element in a BST"/>
+    <hyperlink ref="B234" r:id="rId218" display="Find Kth smallest element in a BST"/>
+    <hyperlink ref="B235" r:id="rId219" display="Count pairs from 2 BST whose sum is equal to given value &quot;X&quot;"/>
+    <hyperlink ref="B236" r:id="rId220" display="Find the median of BST in O(n) time and O(1) space"/>
+    <hyperlink ref="B237" r:id="rId221" display="Count BST ndoes that lie in a given range"/>
+    <hyperlink ref="B238" r:id="rId222" display="Replace every element with the least greater element on its right"/>
+    <hyperlink ref="B239" r:id="rId223" display="Given &quot;n&quot; appointments, find the conflicting appointments"/>
+    <hyperlink ref="B240" r:id="rId224" display="Check preorder is valid or not"/>
+    <hyperlink ref="B241" r:id="rId225" display="Check whether BST contains Dead end"/>
+    <hyperlink ref="B242" r:id="rId226" display="Largest BST in a Binary Tree [ V.V.V.V.V IMP ]"/>
+    <hyperlink ref="B243" r:id="rId227" display="Flatten BST to sorted list"/>
+    <hyperlink ref="B246" r:id="rId228" display="Activity Selection Problem"/>
+    <hyperlink ref="B247" r:id="rId229" display="Job SequencingProblem"/>
+    <hyperlink ref="B248" r:id="rId230" display="Huffman Coding"/>
+    <hyperlink ref="B249" r:id="rId231" display="Water Connection Problem"/>
+    <hyperlink ref="B250" r:id="rId232" display="Fractional Knapsack Problem"/>
+    <hyperlink ref="B251" r:id="rId233" display="Greedy Algorithm to find Minimum number of Coins"/>
+    <hyperlink ref="B252" r:id="rId234" display="Maximum trains for which stoppage can be provided"/>
+    <hyperlink ref="B253" r:id="rId235" display="Minimum Platforms Problem"/>
+    <hyperlink ref="B254" r:id="rId236" display="Buy Maximum Stocks if i stocks can be bought on i-th day"/>
+    <hyperlink ref="B255" r:id="rId237" display="Find the minimum and maximum amount to buy all N candies"/>
+    <hyperlink ref="B256" r:id="rId238" display="Minimize Cash Flow among a given set of friends who have borrowed money from each other"/>
+    <hyperlink ref="B257" r:id="rId239" display="Minimum Cost to cut a board into squares"/>
+    <hyperlink ref="B258" r:id="rId240" display="Check if it is possible to survive on Island"/>
+    <hyperlink ref="B259" r:id="rId241" display="Find maximum meetings in one room"/>
+    <hyperlink ref="B260" r:id="rId242" display="Maximum product subset of an array"/>
+    <hyperlink ref="B261" r:id="rId243" display="Maximize array sum after K negations"/>
+    <hyperlink ref="B262" r:id="rId244" display="Maximize the sum of arr[i]*i"/>
+    <hyperlink ref="B263" r:id="rId245" display="Maximum sum of absolute difference of an array"/>
+    <hyperlink ref="B264" r:id="rId246" display="Maximize sum of consecutive differences in a circular array"/>
+    <hyperlink ref="B265" r:id="rId247" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." display="Minimum sum of absolute difference of pairs of two arrays"/>
+    <hyperlink ref="B266" r:id="rId248" display="Program for Shortest Job First (or SJF) CPU Scheduling"/>
+    <hyperlink ref="B267" r:id="rId249" display="Program for Least Recently Used (LRU) Page Replacement algorithm"/>
+    <hyperlink ref="B268" r:id="rId250" display="Smallest subset with sum greater than all other elements"/>
+    <hyperlink ref="B269" r:id="rId251" display="Chocolate Distribution Problem"/>
+    <hyperlink ref="B270" r:id="rId252" display="DEFKIN -Defense of a Kingdom"/>
+    <hyperlink ref="B271" r:id="rId253" display="DIEHARD -DIE HARD"/>
+    <hyperlink ref="B272" r:id="rId254" display="GERGOVIA -Wine trading in Gergovia"/>
+    <hyperlink ref="B273" r:id="rId255" display="Picking Up Chicks"/>
+    <hyperlink ref="B274" r:id="rId256" display="CHOCOLA –Chocolate"/>
+    <hyperlink ref="B275" r:id="rId257" display="ARRANGE -Arranging Amplifiers"/>
+    <hyperlink ref="B276" r:id="rId258" display="K Centers Problem"/>
+    <hyperlink ref="B277" r:id="rId259" display="Minimum Cost of ropes"/>
+    <hyperlink ref="B278" r:id="rId260" display="Find smallest number with given number of digits and sum of digits"/>
+    <hyperlink ref="B279" r:id="rId261" display="Rearrange characters in a string such that no two adjacent are same"/>
+    <hyperlink ref="B280" r:id="rId262" display="Find maximum sum possible equal sum of three stacks"/>
+    <hyperlink ref="B283" r:id="rId263" display="Rat in a maze Problem"/>
+    <hyperlink ref="B284" r:id="rId264" display="Printing all solutions in N-Queen Problem"/>
+    <hyperlink ref="B285" r:id="rId265" display="Word Break Problem using Backtracking"/>
+    <hyperlink ref="B286" r:id="rId266" display="Remove Invalid Parentheses"/>
+    <hyperlink ref="B287" r:id="rId267" display="Sudoku Solver"/>
+    <hyperlink ref="B288" r:id="rId268" display="m Coloring Problem"/>
+    <hyperlink ref="B289" r:id="rId269" display="Print all palindromic partitions of a string"/>
+    <hyperlink ref="B290" r:id="rId270" display="Subset Sum Problem"/>
+    <hyperlink ref="B291" r:id="rId271" display="The Knight’s tour problem"/>
+    <hyperlink ref="B292" r:id="rId272" display="Tug of War"/>
+    <hyperlink ref="B293" r:id="rId273" display="Find shortest safe route in a path with landmines"/>
+    <hyperlink ref="B294" r:id="rId274" display="Combinational Sum"/>
+    <hyperlink ref="B295" r:id="rId275" display="Find Maximum number possible by doing at-most K swaps"/>
+    <hyperlink ref="B296" r:id="rId276" display="Print all permutations of a string "/>
+    <hyperlink ref="B297" r:id="rId277" display="Find if there is a path of more than k length from a source"/>
+    <hyperlink ref="B298" r:id="rId278" display="Longest Possible Route in a Matrix with Hurdles"/>
+    <hyperlink ref="B299" r:id="rId279" display="Print all possible paths from top left to bottom right of a mXn matrix"/>
+    <hyperlink ref="B300" r:id="rId280" display="Partition of a set intoK subsets with equal sum"/>
+    <hyperlink ref="B301" r:id="rId281" display="Find the K-th Permutation Sequence of first N natural numbers"/>
+    <hyperlink ref="B304" r:id="rId282" display=" Implement Stack from Scratch"/>
+    <hyperlink ref="B305" r:id="rId283" display=" Implement Queue from Scratch"/>
+    <hyperlink ref="B306" r:id="rId284" display="Implement 2 stack in an array"/>
+    <hyperlink ref="B307" r:id="rId285" display="find the middle element of a stack"/>
+    <hyperlink ref="B308" r:id="rId286" display="Implement &quot;N&quot; stacks in an Array"/>
+    <hyperlink ref="B309" r:id="rId287" display="Check the expression has valid or Balanced parenthesis or not."/>
+    <hyperlink ref="B310" r:id="rId288" display="Reverse a String using Stack"/>
+    <hyperlink ref="B311" r:id="rId289" display="Design a Stack that supports getMin() in O(1) time and O(1) extra space."/>
+    <hyperlink ref="B312" r:id="rId290" display="Find the next Greater element"/>
+    <hyperlink ref="B313" r:id="rId291" display="The celebrity Problem"/>
+    <hyperlink ref="B314" r:id="rId292" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." display="Arithmetic Expression evaluation"/>
+    <hyperlink ref="B315" r:id="rId293" display="Evaluation of Postfix expression"/>
+    <hyperlink ref="B316" r:id="rId294" display="Implement a method to insert an element at its bottom without using any other data structure."/>
+    <hyperlink ref="B317" r:id="rId295" display="Reverse a stack using recursion"/>
+    <hyperlink ref="B318" r:id="rId296" display="Sort a Stack using recursion"/>
+    <hyperlink ref="B319" r:id="rId297" display="Merge Overlapping Intervals"/>
+    <hyperlink ref="B320" r:id="rId298" display="Largest rectangular Area in Histogram"/>
+    <hyperlink ref="B321" r:id="rId299" display="Length of the Longest Valid Substring"/>
+    <hyperlink ref="B322" r:id="rId300" display="Expression contains redundant bracket or not"/>
+    <hyperlink ref="B323" r:id="rId301" display="Implement Stack using Queue"/>
+    <hyperlink ref="B324" r:id="rId302" display="Implement Stack using Deque"/>
+    <hyperlink ref="B325" r:id="rId303" display="Stack Permutations (Check if an array is stack permutation of other)"/>
+    <hyperlink ref="B326" r:id="rId304" display="Implement Queue using Stack  "/>
+    <hyperlink ref="B327" r:id="rId305" display="Implement &quot;n&quot; queue in an array"/>
+    <hyperlink ref="B328" r:id="rId306" display="Implement a Circular queue"/>
+    <hyperlink ref="B329" r:id="rId307" display="LRU Cache Implementationa"/>
+    <hyperlink ref="B330" r:id="rId308" display="Reverse a Queue using recursion"/>
+    <hyperlink ref="B331" r:id="rId309" display="Reverse the first “K” elements of a queue"/>
+    <hyperlink ref="B332" r:id="rId310" display="Interleave the first half of the queue with second half"/>
+    <hyperlink ref="B333" r:id="rId311" display="Find the first circular tour that visits all Petrol Pumps"/>
+    <hyperlink ref="B334" r:id="rId312" display="Minimum time required to rot all oranges"/>
+    <hyperlink ref="B335" r:id="rId313" display="Distance of nearest cell having 1 in a binary matrix"/>
+    <hyperlink ref="B336" r:id="rId314" display="First negative integer in every window of size “k”"/>
+    <hyperlink ref="B337" r:id="rId315" display="Check if all levels of two trees are anagrams or not."/>
+    <hyperlink ref="B338" r:id="rId316" display="Sum of minimum and maximum elements of all subarrays of size “k”."/>
+    <hyperlink ref="B339" r:id="rId317" display="Minimum sum of squares of character counts in a given string after removing “k” characters."/>
+    <hyperlink ref="B340" r:id="rId318" display="Queue based approach or first non-repeating character in a stream."/>
+    <hyperlink ref="B341" r:id="rId319" display="Next Smaller Element"/>
+    <hyperlink ref="B344" r:id="rId320" display="Implement a Maxheap/MinHeap using arrays and recursion."/>
+    <hyperlink ref="B345" r:id="rId321" display="Sort an Array using heap. (HeapSort)"/>
+    <hyperlink ref="B346" r:id="rId322" display="Maximum of all subarrays of size k."/>
+    <hyperlink ref="B347" r:id="rId323" display="“k” largest element in an array"/>
+    <hyperlink ref="B348" r:id="rId324" display="Kth smallest and largest element in an unsorted array"/>
+    <hyperlink ref="B349" r:id="rId325" display="Merge “K” sorted arrays. [ IMP ]"/>
+    <hyperlink ref="B350" r:id="rId326" display="Merge 2 Binary Max Heaps"/>
+    <hyperlink ref="B351" r:id="rId327" display="Kth largest sum continuous subarrays"/>
+    <hyperlink ref="B352" r:id="rId328" display="Leetcode- reorganize strings"/>
+    <hyperlink ref="B353" r:id="rId329" display="Merge “K” Sorted Linked Lists [V.IMP]"/>
+    <hyperlink ref="B354" r:id="rId330" display="Smallest range in “K” Lists"/>
+    <hyperlink ref="B355" r:id="rId331" display="Median in a stream of Integers"/>
+    <hyperlink ref="B356" r:id="rId332" display="Check if a Binary Tree is Heap"/>
+    <hyperlink ref="B357" r:id="rId333" display="Connect “n” ropes with minimum cost"/>
+    <hyperlink ref="B358" r:id="rId334" display="Convert BST to Min Heap"/>
+    <hyperlink ref="B359" r:id="rId335" display="Convert min heap to max heap"/>
+    <hyperlink ref="B360" r:id="rId336" display="Rearrange characters in a string such that no two adjacent are same."/>
+    <hyperlink ref="B361" r:id="rId337" display="Minimum sum of two numbers formed from digits of an array"/>
+    <hyperlink ref="B364" r:id="rId338" display="Create a Graph, print it"/>
+    <hyperlink ref="B365" r:id="rId339" display="Implement BFS algorithm "/>
+    <hyperlink ref="B366" r:id="rId340" display="Implement DFS Algo "/>
+    <hyperlink ref="B367" r:id="rId341" display="Detect Cycle in Directed Graph using BFS/DFS Algo "/>
+    <hyperlink ref="B368" r:id="rId342" display="Detect Cycle in UnDirected Graph using BFS/DFS Algo "/>
+    <hyperlink ref="B369" r:id="rId343" display="Search in a Maze"/>
+    <hyperlink ref="B370" r:id="rId344" display="Minimum Step by Knight"/>
+    <hyperlink ref="B371" r:id="rId345" display="flood fill algo"/>
+    <hyperlink ref="B372" r:id="rId346" display="Clone a graph"/>
+    <hyperlink ref="B373" r:id="rId347" display="Making wired Connections"/>
+    <hyperlink ref="B374" r:id="rId348" display="word Ladder "/>
+    <hyperlink ref="B375" r:id="rId349" display="Dijkstra algo"/>
+    <hyperlink ref="B376" r:id="rId350" display="Implement Topological Sort "/>
+    <hyperlink ref="B377" r:id="rId351" display="Minimum time taken by each job to be completed given by a Directed Acyclic Graph"/>
+    <hyperlink ref="B378" r:id="rId352" display="Find whether it is possible to finish all tasks or not from given dependencies"/>
+    <hyperlink ref="B379" r:id="rId353" display="Find the no. of Isalnds"/>
+    <hyperlink ref="B380" r:id="rId354" display="Given a sorted Dictionary of an Alien Language, find order of characters"/>
+    <hyperlink ref="B381" r:id="rId355" display="Implement Kruksal’sAlgorithm"/>
+    <hyperlink ref="B382" r:id="rId356" display="Implement Prim’s Algorithm"/>
+    <hyperlink ref="B383" r:id="rId357" display="Total no. of Spanning tree in a graph"/>
+    <hyperlink ref="B384" r:id="rId358" display="Implement Bellman Ford Algorithm"/>
+    <hyperlink ref="B385" r:id="rId359" display="Implement Floyd warshallAlgorithm"/>
+    <hyperlink ref="B386" r:id="rId360" display="Travelling Salesman Problem"/>
+    <hyperlink ref="B387" r:id="rId361" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." display="Graph ColouringProblem"/>
+    <hyperlink ref="B388" r:id="rId362" display="Snake and Ladders Problem"/>
+    <hyperlink ref="B389" r:id="rId363" display="Find bridge in a graph"/>
+    <hyperlink ref="B390" r:id="rId364" display="Count Strongly connected Components(Kosaraju Algo)"/>
+    <hyperlink ref="B391" r:id="rId365" display="Check whether a graph is Bipartite or Not"/>
+    <hyperlink ref="B392" r:id="rId366" display="Detect Negative cycle in a graph"/>
+    <hyperlink ref="B393" r:id="rId367" display="Longest path in a Directed Acyclic Graph"/>
+    <hyperlink ref="B394" r:id="rId368" display="Journey to the Moon"/>
+    <hyperlink ref="B395" r:id="rId369" display="Cheapest Flights Within K Stops"/>
+    <hyperlink ref="B396" r:id="rId370" display="Oliver and the Game"/>
+    <hyperlink ref="B397" r:id="rId371" display="Water Jug problem using BFS"/>
+    <hyperlink ref="B398" r:id="rId372" display="Water Jug problem using BFS"/>
+    <hyperlink ref="B399" r:id="rId373" display="Find if there is a path of more thank length from a source"/>
+    <hyperlink ref="B400" r:id="rId374" display="M-ColouringProblem"/>
+    <hyperlink ref="B401" r:id="rId375" display="Minimum edges to reverse o make path from source to destination"/>
+    <hyperlink ref="B402" r:id="rId376" display="Paths to travel each nodes using each edge(Seven Bridges)"/>
+    <hyperlink ref="B403" r:id="rId377" display="Vertex Cover Problem"/>
+    <hyperlink ref="B404" r:id="rId378" display="Chinese Postman or Route Inspection"/>
+    <hyperlink ref="B405" r:id="rId379" display="Number of Triangles in a Directed and Undirected Graph"/>
+    <hyperlink ref="B406" r:id="rId380" display="Minimise the cashflow among a given set of friends who have borrowed money from each other"/>
+    <hyperlink ref="B407" r:id="rId381" display="Two Clique Problem"/>
+    <hyperlink ref="B410" r:id="rId382" display="Construct a trie from scratch"/>
+    <hyperlink ref="B411" r:id="rId383" display="Find shortest unique prefix for every word in a given list"/>
+    <hyperlink ref="B412" r:id="rId384" display="Word Break Problem | (Trie solution)"/>
+    <hyperlink ref="B413" r:id="rId385" display="Given a sequence of words, print all anagrams together"/>
+    <hyperlink ref="B414" r:id="rId386" display="Implement a Phone Directory"/>
+    <hyperlink ref="B415" r:id="rId387" display="Print unique rows in a given boolean matrix"/>
+    <hyperlink ref="B418" r:id="rId388" display="Coin ChangeProblem"/>
+    <hyperlink ref="B419" r:id="rId389" display="Knapsack Problem"/>
+    <hyperlink ref="B420" r:id="rId390" display="Binomial CoefficientProblem"/>
+    <hyperlink ref="B421" r:id="rId391" display="Permutation CoefficientProblem"/>
+    <hyperlink ref="B422" r:id="rId392" display="Program for nth Catalan Number"/>
+    <hyperlink ref="B423" r:id="rId393" display="Matrix Chain Multiplication "/>
+    <hyperlink ref="B424" r:id="rId394" display="Edit Distance"/>
+    <hyperlink ref="B425" r:id="rId395" display="Subset Sum Problem"/>
+    <hyperlink ref="B426" r:id="rId396" display="Friends Pairing Problem"/>
+    <hyperlink ref="B427" r:id="rId397" display="Gold Mine Problem"/>
+    <hyperlink ref="B428" r:id="rId398" display="Assembly Line SchedulingProblem"/>
+    <hyperlink ref="B429" r:id="rId399" display="Painting the Fenceproblem"/>
+    <hyperlink ref="B430" r:id="rId400" display="Maximize The Cut Segments"/>
+    <hyperlink ref="B431" r:id="rId401" display="Longest Common Subsequence"/>
+    <hyperlink ref="B432" r:id="rId402" display="Longest Repeated Subsequence"/>
+    <hyperlink ref="B433" r:id="rId403" display="Longest Increasing Subsequence"/>
+    <hyperlink ref="B434" r:id="rId404" display="Space Optimized Solution of LCS"/>
+    <hyperlink ref="B435" r:id="rId405" display="LCS (Longest Common Subsequence) of three strings"/>
+    <hyperlink ref="B436" r:id="rId406" display="Maximum Sum Increasing Subsequence"/>
+    <hyperlink ref="B437" r:id="rId407" display="Count all subsequences having product less than K"/>
+    <hyperlink ref="B438" r:id="rId408" display="Longest subsequence such that difference between adjacent is one"/>
+    <hyperlink ref="B439" r:id="rId409" display="Maximum subsequence sum such that no three are consecutive"/>
+    <hyperlink ref="B440" r:id="rId410" display="Egg Dropping Problem"/>
+    <hyperlink ref="B441" r:id="rId411" display="Maximum Length Chain of Pairs"/>
+    <hyperlink ref="B442" r:id="rId412" display="Maximum size square sub-matrix with all 1s"/>
+    <hyperlink ref="B443" r:id="rId413" display="Maximum sum of pairs with specific difference"/>
+    <hyperlink ref="B444" r:id="rId414" display="Min Cost PathProblem"/>
+    <hyperlink ref="B445" r:id="rId415" display="Maximum difference of zeros and ones in binary string"/>
+    <hyperlink ref="B446" r:id="rId416" display="Minimum number of jumps to reach end"/>
+    <hyperlink ref="B447" r:id="rId417" display="Minimum cost to fill given weight in a bag"/>
+    <hyperlink ref="B448" r:id="rId418" display="Minimum removals from array to make max –min &lt;= K"/>
+    <hyperlink ref="B449" r:id="rId419" display="Longest Common Substring"/>
+    <hyperlink ref="B450" r:id="rId420" display="Count number of ways to reacha given score in a game"/>
+    <hyperlink ref="B451" r:id="rId421" display="Count Balanced Binary Trees of Height h"/>
+    <hyperlink ref="B452" r:id="rId422" display="LargestSum Contiguous Subarray [V&gt;V&gt;V&gt;V IMP ]"/>
+    <hyperlink ref="B453" r:id="rId423" display="Smallest sum contiguous subarray"/>
+    <hyperlink ref="B454" r:id="rId424" display="Unbounded Knapsack (Repetition of items allowed)"/>
+    <hyperlink ref="B455" r:id="rId425" display="Word Break Problem"/>
+    <hyperlink ref="B456" r:id="rId426" display="Largest Independent Set Problem"/>
+    <hyperlink ref="B457" r:id="rId427" display="Partition problem"/>
+    <hyperlink ref="B458" r:id="rId428" display="Longest Palindromic Subsequence"/>
+    <hyperlink ref="B459" r:id="rId429" display="Count All Palindromic Subsequence in a given String"/>
+    <hyperlink ref="B460" r:id="rId430" display="Longest Palindromic Substring"/>
+    <hyperlink ref="B461" r:id="rId431" display="Longest alternating subsequence"/>
+    <hyperlink ref="B462" r:id="rId432" display="Weighted Job Scheduling"/>
+    <hyperlink ref="B463" r:id="rId433" display="Coin game winner where every player has three choices"/>
+    <hyperlink ref="B464" r:id="rId434" display="Count Derangements (Permutation such that no element appears in its original position) [ IMPORTANT ]"/>
+    <hyperlink ref="B465" r:id="rId435" display="Maximum profit by buying and selling a share at most twice [ IMP ]"/>
+    <hyperlink ref="B466" r:id="rId436" display="Optimal Strategy for a Game"/>
+    <hyperlink ref="B467" r:id="rId437" display="Optimal Binary Search Tree"/>
+    <hyperlink ref="B468" r:id="rId438" display="Palindrome PartitioningProblem"/>
+    <hyperlink ref="B469" r:id="rId439" display="Word Wrap Problem"/>
+    <hyperlink ref="B470" r:id="rId440" display="Mobile Numeric Keypad Problem [ IMP ]"/>
+    <hyperlink ref="B471" r:id="rId441" display="Boolean Parenthesization Problem"/>
+    <hyperlink ref="B472" r:id="rId442" display="Largest rectangular sub-matrix whose sum is 0"/>
+    <hyperlink ref="B473" r:id="rId443" display="Largest area rectangular sub-matrix with equal number of 1’s and 0’s [ IMP ]"/>
+    <hyperlink ref="B474" r:id="rId444" display="Maximum sum rectangle in a 2D matrix"/>
+    <hyperlink ref="B475" r:id="rId445" display="Maximum profit by buying and selling a share at most k times"/>
+    <hyperlink ref="B476" r:id="rId446" display="Find if a string is interleaved of two other strings"/>
+    <hyperlink ref="B477" r:id="rId447" display="Maximum Length of Pair Chain"/>
+    <hyperlink ref="B480" r:id="rId448" display="Count set bits in an integer"/>
+    <hyperlink ref="B481" r:id="rId449" display="Find the two non-repeating elements in an array of repeating elements"/>
+    <hyperlink ref="B482" r:id="rId450" display="Count number of bits to be flipped to convert A to B"/>
+    <hyperlink ref="B483" r:id="rId451" display="Count total set bits in all numbers from 1 to n"/>
+    <hyperlink ref="B484" r:id="rId452" display="Program to find whether a no is power of two"/>
+    <hyperlink ref="B485" r:id="rId453" display="Find position of the only set bit"/>
+    <hyperlink ref="B486" r:id="rId454" display="Copy set bits in a range"/>
+    <hyperlink ref="B487" r:id="rId455" display="Divide two integers without using multiplication, division and mod operator"/>
+    <hyperlink ref="B488" r:id="rId456" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." display="Calculate square of a number without using *, / and pow()"/>
+    <hyperlink ref="B489" r:id="rId457" display="Power Set"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
